--- a/data/final/all.data.xlsx
+++ b/data/final/all.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/GitHub/CSIA_lab_work/data/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66776AED-4680-3944-BF4B-204AEDFEFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D99AE-415B-AC44-956C-0D22E2ABCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="960" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="500" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
   <si>
     <t>Year</t>
   </si>
@@ -338,6 +338,57 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>19_E_3</t>
+  </si>
+  <si>
+    <t>19_W_3</t>
+  </si>
+  <si>
+    <t>16_E_3</t>
+  </si>
+  <si>
+    <t>16_K_3</t>
+  </si>
+  <si>
+    <t>10_K_3</t>
+  </si>
+  <si>
+    <t>10_W_3</t>
+  </si>
+  <si>
+    <t>07_W_3</t>
+  </si>
+  <si>
+    <t>07_K_3</t>
+  </si>
+  <si>
+    <t>98_K_3</t>
+  </si>
+  <si>
+    <t>98_W_3</t>
+  </si>
+  <si>
+    <t>95_K_3</t>
+  </si>
+  <si>
+    <t>93_K_3</t>
+  </si>
+  <si>
+    <t>92_E_3</t>
+  </si>
+  <si>
+    <t>89_K_3</t>
+  </si>
+  <si>
+    <t>86_E_3</t>
+  </si>
+  <si>
+    <t>86_K_2</t>
+  </si>
+  <si>
+    <t>86_K_3</t>
   </si>
 </sst>
 </file>
@@ -671,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1055,6 +1106,20 @@
         <v>2.9976174859429898</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
@@ -1149,6 +1214,20 @@
         <v>3.2967590297449898</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
@@ -1243,6 +1322,34 @@
         <v>3.1154395763584799</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <v>2016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
@@ -1760,6 +1867,20 @@
         <v>3.4725875075113701</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>2010</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
@@ -1807,6 +1928,20 @@
         <v>3.0984708987895502</v>
       </c>
     </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>2010</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
@@ -1948,6 +2083,20 @@
         <v>3.3232860981196302</v>
       </c>
     </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>2007</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>103</v>
@@ -1995,6 +2144,20 @@
         <v>2.1443236376244901</v>
       </c>
     </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>2007</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
@@ -2700,6 +2863,20 @@
         <v>2.8976157273165999</v>
       </c>
     </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52">
+        <v>1998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
@@ -2747,6 +2924,20 @@
         <v>2.6732126148166202</v>
       </c>
     </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54">
+        <v>1998</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
@@ -2890,7 +3081,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B58">
         <v>1995</v>
@@ -2899,92 +3090,59 @@
         <v>17</v>
       </c>
       <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>21.213857386363301</v>
-      </c>
-      <c r="F58">
-        <v>12.385555397727201</v>
-      </c>
-      <c r="G58">
-        <v>20.570401609846499</v>
-      </c>
-      <c r="H58">
-        <v>3.3428397727268599</v>
-      </c>
-      <c r="I58">
-        <v>21.631874431817501</v>
-      </c>
-      <c r="J58">
-        <v>1.19039390874747</v>
-      </c>
-      <c r="K58">
-        <v>0.27570847629895101</v>
-      </c>
-      <c r="L58">
-        <v>0.49200638491849502</v>
-      </c>
-      <c r="M58">
-        <v>0.47292703538381098</v>
-      </c>
-      <c r="N58">
-        <v>0.25400631134145701</v>
-      </c>
-      <c r="O58">
-        <v>2.95857816389797</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>1995</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <v>19.191472443181802</v>
+        <v>21.213857386363301</v>
       </c>
       <c r="F59">
-        <v>17.716570643938699</v>
+        <v>12.385555397727201</v>
       </c>
       <c r="G59">
-        <v>18.478068655303002</v>
+        <v>20.570401609846499</v>
       </c>
       <c r="H59">
-        <v>3.99640468749991</v>
+        <v>3.3428397727268599</v>
       </c>
       <c r="I59">
-        <v>22.3341442234846</v>
+        <v>21.631874431817501</v>
       </c>
       <c r="J59">
-        <v>3.1002599489051201</v>
+        <v>1.19039390874747</v>
       </c>
       <c r="K59">
-        <v>2.0591265071656899</v>
+        <v>0.27570847629895101</v>
       </c>
       <c r="L59">
-        <v>0.42861630850666399</v>
+        <v>0.49200638491849502</v>
       </c>
       <c r="M59">
-        <v>0.90226604308528202</v>
+        <v>0.47292703538381098</v>
       </c>
       <c r="N59">
-        <v>0.58624480037363702</v>
+        <v>0.25400631134145701</v>
       </c>
       <c r="O59">
-        <v>2.56964078864066</v>
+        <v>2.95857816389797</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>1995</v>
@@ -2993,236 +3151,170 @@
         <v>20</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>16.644222821969699</v>
+        <v>19.191472443181802</v>
       </c>
       <c r="F60">
-        <v>15.6334774621207</v>
+        <v>17.716570643938699</v>
       </c>
       <c r="G60">
-        <v>21.2935553977272</v>
+        <v>18.478068655303002</v>
       </c>
       <c r="H60">
-        <v>4.53574895833325</v>
+        <v>3.99640468749991</v>
       </c>
       <c r="I60">
-        <v>23.107927178030099</v>
+        <v>22.3341442234846</v>
       </c>
       <c r="J60">
-        <v>0.224321414275655</v>
+        <v>3.1002599489051201</v>
       </c>
       <c r="K60">
-        <v>0.80638467431300798</v>
+        <v>2.0591265071656899</v>
       </c>
       <c r="L60">
-        <v>0.24101535938511401</v>
+        <v>0.42861630850666399</v>
       </c>
       <c r="M60">
-        <v>0.84652445451565395</v>
+        <v>0.90226604308528202</v>
       </c>
       <c r="N60">
-        <v>0.35106443626249201</v>
+        <v>0.58624480037363702</v>
       </c>
       <c r="O60">
-        <v>2.8920405721521201</v>
+        <v>2.56964078864066</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>17.105446969696899</v>
+        <v>16.644222821969699</v>
       </c>
       <c r="F61">
-        <v>14.196566666666699</v>
+        <v>15.6334774621207</v>
       </c>
       <c r="G61">
-        <v>22.639409848484402</v>
+        <v>21.2935553977272</v>
       </c>
       <c r="H61">
-        <v>6.4506643939390402</v>
+        <v>4.53574895833325</v>
       </c>
       <c r="I61">
-        <v>23.727481818181801</v>
+        <v>23.107927178030099</v>
       </c>
       <c r="J61">
-        <v>0.48966007041135801</v>
+        <v>0.224321414275655</v>
       </c>
       <c r="K61">
-        <v>1.21347004896685</v>
+        <v>0.80638467431300798</v>
       </c>
       <c r="L61">
-        <v>0.23892040300610601</v>
+        <v>0.24101535938511401</v>
       </c>
       <c r="M61">
-        <v>0.48132849288962198</v>
+        <v>0.84652445451565395</v>
       </c>
       <c r="N61">
-        <v>0.37462760207824802</v>
+        <v>0.35106443626249201</v>
       </c>
       <c r="O61">
-        <v>2.8114370332217198</v>
+        <v>2.8920405721521201</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B62">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>21.440292613636199</v>
-      </c>
-      <c r="F62">
-        <v>13.8010958333335</v>
-      </c>
-      <c r="G62">
-        <v>23.2483995265145</v>
-      </c>
-      <c r="H62">
-        <v>3.7078033143934901</v>
-      </c>
-      <c r="I62">
-        <v>23.763864015151501</v>
-      </c>
-      <c r="J62">
-        <v>1.57406666630473</v>
-      </c>
-      <c r="K62">
-        <v>0.213854850867538</v>
-      </c>
-      <c r="L62">
-        <v>0.27235978908652497</v>
-      </c>
-      <c r="M62">
-        <v>1.3163121083721301</v>
-      </c>
-      <c r="N62">
-        <v>0.26963349860917502</v>
-      </c>
-      <c r="O62">
-        <v>3.2862034294789</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B63">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>16.8622334280298</v>
+        <v>17.105446969696899</v>
       </c>
       <c r="F63">
-        <v>13.844948200757599</v>
+        <v>14.196566666666699</v>
       </c>
       <c r="G63">
-        <v>21.294684943180702</v>
+        <v>22.639409848484402</v>
       </c>
       <c r="H63">
-        <v>6.8179982007568398</v>
+        <v>6.4506643939390402</v>
       </c>
       <c r="I63">
-        <v>23.642611837120999</v>
+        <v>23.727481818181801</v>
       </c>
       <c r="J63">
-        <v>0.35675424178745302</v>
+        <v>0.48966007041135801</v>
       </c>
       <c r="K63">
-        <v>2.9326733782016001</v>
+        <v>1.21347004896685</v>
       </c>
       <c r="L63">
-        <v>0.25933369779212001</v>
+        <v>0.23892040300610601</v>
       </c>
       <c r="M63">
-        <v>1.0717685413879401</v>
+        <v>0.48132849288962198</v>
       </c>
       <c r="N63">
-        <v>0.28330952991673197</v>
+        <v>0.37462760207824802</v>
       </c>
       <c r="O63">
-        <v>2.56893579921018</v>
+        <v>2.8114370332217198</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B64">
         <v>1992</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64">
-        <v>17.4830022727268</v>
-      </c>
-      <c r="F64">
-        <v>13.062035606060199</v>
-      </c>
-      <c r="G64">
-        <v>22.8674977272726</v>
-      </c>
-      <c r="H64">
-        <v>3.3438378787877201</v>
-      </c>
-      <c r="I64">
-        <v>23.4529439393934</v>
-      </c>
-      <c r="J64">
-        <v>1.40218989150409</v>
-      </c>
-      <c r="K64">
-        <v>0.567292835754167</v>
-      </c>
-      <c r="L64">
-        <v>5.8655096555426799E-2</v>
-      </c>
-      <c r="M64">
-        <v>3.0063054311838</v>
-      </c>
-      <c r="N64">
-        <v>0.210411889439334</v>
-      </c>
-      <c r="O64">
-        <v>3.2838045111168399</v>
-      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B65">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -3231,374 +3323,341 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>17.141705397727399</v>
+        <v>21.440292613636199</v>
       </c>
       <c r="F65">
-        <v>13.091755965909799</v>
+        <v>13.8010958333335</v>
       </c>
       <c r="G65">
-        <v>22.279723674242</v>
+        <v>23.2483995265145</v>
       </c>
       <c r="H65">
-        <v>5.9216718749993502</v>
+        <v>3.7078033143934901</v>
       </c>
       <c r="I65">
-        <v>24.1133613636365</v>
+        <v>23.763864015151501</v>
       </c>
       <c r="J65">
-        <v>0.38952321397649298</v>
+        <v>1.57406666630473</v>
       </c>
       <c r="K65">
-        <v>2.13134671330819</v>
+        <v>0.213854850867538</v>
       </c>
       <c r="L65">
-        <v>0.18513874370574401</v>
+        <v>0.27235978908652497</v>
       </c>
       <c r="M65">
-        <v>0.411605877851208</v>
+        <v>1.3163121083721301</v>
       </c>
       <c r="N65">
-        <v>0.231887941475725</v>
+        <v>0.26963349860917502</v>
       </c>
       <c r="O65">
-        <v>2.8354181018757298</v>
+        <v>3.2862034294789</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>16.9008238636365</v>
+        <v>16.8622334280298</v>
       </c>
       <c r="F66">
-        <v>14.201524621213199</v>
+        <v>13.844948200757599</v>
       </c>
       <c r="G66">
-        <v>22.618420454545099</v>
+        <v>21.294684943180702</v>
       </c>
       <c r="H66">
-        <v>2.50047916666579</v>
+        <v>6.8179982007568398</v>
       </c>
       <c r="I66">
-        <v>22.939681818181999</v>
+        <v>23.642611837120999</v>
       </c>
       <c r="J66">
-        <v>0.22893966024565801</v>
+        <v>0.35675424178745302</v>
       </c>
       <c r="K66">
-        <v>1.8985913538466901</v>
+        <v>2.9326733782016001</v>
       </c>
       <c r="L66">
-        <v>0.59160091408167903</v>
+        <v>0.25933369779212001</v>
       </c>
       <c r="M66">
-        <v>1.86759810171115</v>
+        <v>1.0717685413879401</v>
       </c>
       <c r="N66">
-        <v>0.57767584819142304</v>
+        <v>0.28330952991673197</v>
       </c>
       <c r="O66">
-        <v>3.3679803523908398</v>
+        <v>2.56893579921018</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B67">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>18.369784611742499</v>
+        <v>17.4830022727268</v>
       </c>
       <c r="F67">
-        <v>13.0556173295458</v>
+        <v>13.062035606060199</v>
       </c>
       <c r="G67">
-        <v>21.1520520359846</v>
+        <v>22.8674977272726</v>
       </c>
       <c r="H67">
-        <v>5.3751609374996097</v>
+        <v>3.3438378787877201</v>
       </c>
       <c r="I67">
-        <v>23.241905918560501</v>
+        <v>23.4529439393934</v>
       </c>
       <c r="J67">
-        <v>2.5842134879532899</v>
+        <v>1.40218989150409</v>
       </c>
       <c r="K67">
-        <v>0.86722811042117098</v>
+        <v>0.567292835754167</v>
       </c>
       <c r="L67">
-        <v>0.21784043174473899</v>
+        <v>5.8655096555426799E-2</v>
       </c>
       <c r="M67">
-        <v>0.65297749250435699</v>
+        <v>3.0063054311838</v>
       </c>
       <c r="N67">
-        <v>0.18919081486936201</v>
+        <v>0.210411889439334</v>
       </c>
       <c r="O67">
-        <v>2.7531007221650099</v>
+        <v>3.2838045111168399</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>1989</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>16.755549242424198</v>
+        <v>17.141705397727399</v>
       </c>
       <c r="F68">
-        <v>14.390583333333399</v>
+        <v>13.091755965909799</v>
       </c>
       <c r="G68">
-        <v>23.715642045454</v>
+        <v>22.279723674242</v>
       </c>
       <c r="H68">
-        <v>3.9895056818176799</v>
+        <v>5.9216718749993502</v>
       </c>
       <c r="I68">
-        <v>23.537462121212101</v>
+        <v>24.1133613636365</v>
       </c>
       <c r="J68">
-        <v>0.49739788114641298</v>
+        <v>0.38952321397649298</v>
       </c>
       <c r="K68">
-        <v>1.62823771214142</v>
+        <v>2.13134671330819</v>
       </c>
       <c r="L68">
-        <v>0.316940733835544</v>
+        <v>0.18513874370574401</v>
       </c>
       <c r="M68">
-        <v>1.09254725015688</v>
+        <v>0.411605877851208</v>
       </c>
       <c r="N68">
-        <v>0.43026527327964897</v>
+        <v>0.231887941475725</v>
       </c>
       <c r="O68">
-        <v>3.31248390419778</v>
+        <v>2.8354181018757298</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <v>1989</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>21.287958285984601</v>
+        <v>16.9008238636365</v>
       </c>
       <c r="F69">
-        <v>13.672001562500499</v>
+        <v>14.201524621213199</v>
       </c>
       <c r="G69">
-        <v>21.977558806817601</v>
+        <v>22.618420454545099</v>
       </c>
       <c r="H69">
-        <v>2.5533771306812501</v>
+        <v>2.50047916666579</v>
       </c>
       <c r="I69">
-        <v>22.478193939393702</v>
+        <v>22.939681818181999</v>
       </c>
       <c r="J69">
-        <v>1.00239857357982</v>
+        <v>0.22893966024565801</v>
       </c>
       <c r="K69">
-        <v>0.16205252015348801</v>
+        <v>1.8985913538466901</v>
       </c>
       <c r="L69">
-        <v>0.174434034007838</v>
+        <v>0.59160091408167903</v>
       </c>
       <c r="M69">
-        <v>0.70531608700229298</v>
+        <v>1.86759810171115</v>
       </c>
       <c r="N69">
-        <v>0.20695601457002399</v>
+        <v>0.57767584819142304</v>
       </c>
       <c r="O69">
-        <v>3.2697141184329102</v>
+        <v>3.3679803523908398</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B70">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>16.483809090909201</v>
-      </c>
-      <c r="F70">
-        <v>13.972236458334001</v>
-      </c>
-      <c r="G70">
-        <v>24.006097916666601</v>
-      </c>
-      <c r="H70">
-        <v>7.0483551136363403</v>
-      </c>
-      <c r="I70">
-        <v>23.8508546401514</v>
-      </c>
-      <c r="J70">
-        <v>0.88022308540654703</v>
-      </c>
-      <c r="K70">
-        <v>1.60411937795561</v>
-      </c>
-      <c r="L70">
-        <v>0.413041236890965</v>
-      </c>
-      <c r="M70">
-        <v>1.0564167567924301</v>
-      </c>
-      <c r="N70">
-        <v>0.38921449497492</v>
-      </c>
-      <c r="O70">
-        <v>2.9203601704008899</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>16.3557412878788</v>
+        <v>18.369784611742499</v>
       </c>
       <c r="F71">
-        <v>17.258291193181599</v>
+        <v>13.0556173295458</v>
       </c>
       <c r="G71">
-        <v>21.271601893940002</v>
+        <v>21.1520520359846</v>
       </c>
       <c r="H71">
-        <v>6.4310294507577703</v>
+        <v>5.3751609374996097</v>
       </c>
       <c r="I71">
-        <v>21.922499999999999</v>
+        <v>23.241905918560501</v>
       </c>
       <c r="J71">
-        <v>1.39381775956101</v>
+        <v>2.5842134879532899</v>
       </c>
       <c r="K71">
-        <v>1.10041580242572</v>
+        <v>0.86722811042117098</v>
       </c>
       <c r="L71">
-        <v>0.37100579569880299</v>
+        <v>0.21784043174473899</v>
       </c>
       <c r="M71">
-        <v>4.7283585590517201E-2</v>
+        <v>0.65297749250435699</v>
       </c>
       <c r="N71">
-        <v>0.189503957742306</v>
+        <v>0.18919081486936201</v>
       </c>
       <c r="O71">
-        <v>2.6204776831702898</v>
+        <v>2.7531007221650099</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B72">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>22.912578055964602</v>
+        <v>16.755549242424198</v>
       </c>
       <c r="F72">
-        <v>11.5150522827703</v>
+        <v>14.390583333333399</v>
       </c>
       <c r="G72">
-        <v>22.765211585664701</v>
+        <v>23.715642045454</v>
       </c>
       <c r="H72">
-        <v>3.4736167157580899</v>
+        <v>3.9895056818176799</v>
       </c>
       <c r="I72">
-        <v>22.701163475699602</v>
+        <v>23.537462121212101</v>
       </c>
       <c r="J72">
-        <v>0.47293214358953101</v>
+        <v>0.49739788114641298</v>
       </c>
       <c r="K72">
-        <v>0.60937771816450603</v>
+        <v>1.62823771214142</v>
       </c>
       <c r="L72">
-        <v>0.38446982159461401</v>
+        <v>0.316940733835544</v>
       </c>
       <c r="M72">
-        <v>0.19778519946470599</v>
+        <v>1.09254725015688</v>
       </c>
       <c r="N72">
-        <v>0.20138033262342001</v>
+        <v>0.43026527327964897</v>
       </c>
       <c r="O72">
-        <v>3.2509341175505102</v>
+        <v>3.31248390419778</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B73">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -3607,468 +3666,275 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <v>16.1410369318181</v>
+        <v>21.287958285984601</v>
       </c>
       <c r="F73">
-        <v>13.7737208333333</v>
+        <v>13.672001562500499</v>
       </c>
       <c r="G73">
-        <v>21.920652367423799</v>
+        <v>21.977558806817601</v>
       </c>
       <c r="H73">
-        <v>6.6623667613633799</v>
+        <v>2.5533771306812501</v>
       </c>
       <c r="I73">
-        <v>22.983413257575801</v>
+        <v>22.478193939393702</v>
       </c>
       <c r="J73">
-        <v>0.15340158443868199</v>
+        <v>1.00239857357982</v>
       </c>
       <c r="K73">
-        <v>0.16879313445628599</v>
+        <v>0.16205252015348801</v>
       </c>
       <c r="L73">
-        <v>0.47806076502066802</v>
+        <v>0.174434034007838</v>
       </c>
       <c r="M73">
-        <v>1.2976449366484499</v>
+        <v>0.70531608700229298</v>
       </c>
       <c r="N73">
-        <v>0.21300084491820301</v>
+        <v>0.20695601457002399</v>
       </c>
       <c r="O73">
-        <v>2.6796438535496301</v>
+        <v>3.2697141184329102</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B74">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>16.350245454545401</v>
-      </c>
-      <c r="F74">
-        <v>18.216407291667</v>
-      </c>
-      <c r="G74">
-        <v>20.094939583333201</v>
-      </c>
-      <c r="H74">
-        <v>3.9562329545453898</v>
-      </c>
-      <c r="I74">
-        <v>20.971898200757401</v>
-      </c>
-      <c r="J74">
-        <v>1.56279730497795</v>
-      </c>
-      <c r="K74">
-        <v>1.64121831004688</v>
-      </c>
-      <c r="L74">
-        <v>1.0364123851645399</v>
-      </c>
-      <c r="M74" t="s">
-        <v>105</v>
-      </c>
-      <c r="N74">
-        <v>0.52146386072435602</v>
-      </c>
-      <c r="O74">
-        <v>2.8043493808481301</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B75">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>14.434212121212401</v>
+        <v>16.483809090909201</v>
       </c>
       <c r="F75">
-        <v>16.425354166667699</v>
+        <v>13.972236458334001</v>
       </c>
       <c r="G75">
-        <v>23.144208333333498</v>
+        <v>24.006097916666601</v>
       </c>
       <c r="H75">
-        <v>3.4033068181817701</v>
+        <v>7.0483551136363403</v>
       </c>
       <c r="I75">
-        <v>22.953111742424301</v>
+        <v>23.8508546401514</v>
       </c>
       <c r="J75">
-        <v>2.2163646329392201</v>
+        <v>0.88022308540654703</v>
       </c>
       <c r="K75">
-        <v>6.0776554430949004</v>
+        <v>1.60411937795561</v>
       </c>
       <c r="L75">
-        <v>0.39317478730504501</v>
+        <v>0.413041236890965</v>
       </c>
       <c r="M75">
-        <v>1.0200883305381001</v>
+        <v>1.0564167567924301</v>
       </c>
       <c r="N75">
-        <v>0.17534264289265</v>
+        <v>0.38921449497492</v>
       </c>
       <c r="O75">
-        <v>3.3145752854322601</v>
+        <v>2.9203601704008899</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B76">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>13.6036013257576</v>
+        <v>16.3557412878788</v>
       </c>
       <c r="F76">
-        <v>15.286704166666601</v>
+        <v>17.258291193181599</v>
       </c>
       <c r="G76">
-        <v>19.179753503787399</v>
+        <v>21.271601893940002</v>
       </c>
       <c r="H76">
-        <v>5.02473579545455</v>
+        <v>6.4310294507577703</v>
       </c>
       <c r="I76">
-        <v>20.640766287878801</v>
+        <v>21.922499999999999</v>
       </c>
       <c r="J76">
-        <v>1.14399163687367</v>
+        <v>1.39381775956101</v>
       </c>
       <c r="K76">
-        <v>1.7068919626735499</v>
+        <v>1.10041580242572</v>
       </c>
       <c r="L76">
-        <v>1.57194171027636</v>
-      </c>
-      <c r="M76" t="s">
-        <v>105</v>
+        <v>0.37100579569880299</v>
+      </c>
+      <c r="M76">
+        <v>4.7283585590517201E-2</v>
       </c>
       <c r="N76">
-        <v>0.27780095626094398</v>
+        <v>0.189503957742306</v>
       </c>
       <c r="O76">
-        <v>2.5233736130783102</v>
+        <v>2.6204776831702898</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>23.839729545455398</v>
+        <v>22.912578055964602</v>
       </c>
       <c r="F77">
-        <v>11.900452367423901</v>
+        <v>11.5150522827703</v>
       </c>
       <c r="G77">
-        <v>22.056613636364901</v>
+        <v>22.765211585664701</v>
       </c>
       <c r="H77">
-        <v>1.4121243371226599</v>
+        <v>3.4736167157580899</v>
       </c>
       <c r="I77">
-        <v>21.0544213068187</v>
+        <v>22.701163475699602</v>
       </c>
       <c r="J77">
-        <v>0.64123198752359101</v>
+        <v>0.47293214358953101</v>
       </c>
       <c r="K77">
-        <v>0.382577647455418</v>
+        <v>0.60937771816450603</v>
       </c>
       <c r="L77">
-        <v>0.16931944020262499</v>
+        <v>0.38446982159461401</v>
       </c>
       <c r="M77">
-        <v>0.106947208575682</v>
+        <v>0.19778519946470599</v>
       </c>
       <c r="N77">
-        <v>0.227065475780171</v>
+        <v>0.20138033262342001</v>
       </c>
       <c r="O77">
-        <v>3.4425622236887001</v>
+        <v>3.2509341175505102</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B78">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>2</v>
-      </c>
-      <c r="E78">
-        <v>17.010133238636001</v>
-      </c>
-      <c r="F78">
-        <v>16.6862124053029</v>
-      </c>
-      <c r="G78">
-        <v>22.260772017045401</v>
-      </c>
-      <c r="H78">
-        <v>7.9244247159092298</v>
-      </c>
-      <c r="I78">
-        <v>22.212338446969198</v>
-      </c>
-      <c r="J78">
-        <v>0.62817530378935604</v>
-      </c>
-      <c r="K78">
-        <v>2.5758409648637199</v>
-      </c>
-      <c r="L78">
-        <v>1.9635899310029199</v>
-      </c>
-      <c r="M78">
-        <v>3.9939572586544099</v>
-      </c>
-      <c r="N78">
-        <v>0.11428364399867599</v>
-      </c>
-      <c r="O78">
-        <v>2.5490576913790601</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B79">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>19.119294696970499</v>
-      </c>
-      <c r="F79">
-        <v>14.977582481060301</v>
-      </c>
-      <c r="G79">
-        <v>21.983992424243301</v>
-      </c>
-      <c r="H79">
-        <v>4.4899165719703298</v>
-      </c>
-      <c r="I79">
-        <v>21.1229589962125</v>
-      </c>
-      <c r="J79">
-        <v>1.0091443291100299</v>
-      </c>
-      <c r="K79">
-        <v>2.94327305489159</v>
-      </c>
-      <c r="L79">
-        <v>0.37456665480418899</v>
-      </c>
-      <c r="M79">
-        <v>0.240267840060753</v>
-      </c>
-      <c r="N79">
-        <v>0.12109402920334</v>
-      </c>
-      <c r="O79">
-        <v>2.99632802440127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80">
-        <v>1977</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>10.602315151515301</v>
-      </c>
-      <c r="F80">
-        <v>15.309191666667701</v>
-      </c>
-      <c r="G80">
-        <v>23.102716666666701</v>
-      </c>
-      <c r="H80">
-        <v>4.7944772727272102</v>
-      </c>
-      <c r="I80">
-        <v>23.543155303030399</v>
-      </c>
-      <c r="J80">
-        <v>5.4799588464576301</v>
-      </c>
-      <c r="K80">
-        <v>1.46066912983681</v>
-      </c>
-      <c r="L80">
-        <v>0.169281277382928</v>
-      </c>
-      <c r="M80">
-        <v>0.59609864940909796</v>
-      </c>
-      <c r="N80">
-        <v>0.39993809865716001</v>
-      </c>
-      <c r="O80">
-        <v>3.1116486393681999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>20.866051515151899</v>
+        <v>16.1410369318181</v>
       </c>
       <c r="F81">
-        <v>12.163309375001701</v>
+        <v>13.7737208333333</v>
       </c>
       <c r="G81">
-        <v>21.491493750000199</v>
+        <v>21.920652367423799</v>
       </c>
       <c r="H81">
-        <v>1.39709564393938</v>
+        <v>6.6623667613633799</v>
       </c>
       <c r="I81">
-        <v>21.211079071970101</v>
+        <v>22.983413257575801</v>
       </c>
       <c r="J81">
-        <v>0.62296134037165696</v>
+        <v>0.15340158443868199</v>
       </c>
       <c r="K81">
-        <v>0.202853753725</v>
+        <v>0.16879313445628599</v>
       </c>
       <c r="L81">
-        <v>0.210545330722545</v>
+        <v>0.47806076502066802</v>
       </c>
       <c r="M81">
-        <v>0.34310232568125199</v>
+        <v>1.2976449366484499</v>
       </c>
       <c r="N81">
-        <v>0.180046974857133</v>
+        <v>0.21300084491820301</v>
       </c>
       <c r="O81">
-        <v>3.3646456240879301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82">
-        <v>1974</v>
-      </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82">
-        <v>20.105557812499999</v>
-      </c>
-      <c r="F82">
-        <v>14.569544507575401</v>
-      </c>
-      <c r="G82">
-        <v>23.370273816288201</v>
-      </c>
-      <c r="H82">
-        <v>3.9781295928034499</v>
-      </c>
-      <c r="I82">
-        <v>23.785977888257499</v>
-      </c>
-      <c r="J82">
-        <v>0.338055588348393</v>
-      </c>
-      <c r="K82">
-        <v>0.66578365429605002</v>
-      </c>
-      <c r="L82">
-        <v>0.168366024114909</v>
-      </c>
-      <c r="M82">
-        <v>0.41857827922695801</v>
-      </c>
-      <c r="N82">
-        <v>0.101803284088977</v>
-      </c>
-      <c r="O82">
-        <v>3.2651762356210701</v>
+        <v>2.6796438535496301</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B83">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -4077,468 +3943,280 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>15.1998685606059</v>
+        <v>16.350245454545401</v>
       </c>
       <c r="F83">
-        <v>13.4555362689399</v>
+        <v>18.216407291667</v>
       </c>
       <c r="G83">
-        <v>20.387598674242099</v>
+        <v>20.094939583333201</v>
       </c>
       <c r="H83">
-        <v>3.5647580492419002</v>
+        <v>3.9562329545453898</v>
       </c>
       <c r="I83">
-        <v>21.929078219697001</v>
+        <v>20.971898200757401</v>
       </c>
       <c r="J83">
-        <v>1.4725239045465</v>
+        <v>1.56279730497795</v>
       </c>
       <c r="K83">
-        <v>1.99204716730057</v>
+        <v>1.64121831004688</v>
       </c>
       <c r="L83">
-        <v>0.83922815781523896</v>
-      </c>
-      <c r="M83">
-        <v>0.80946712140888699</v>
+        <v>1.0364123851645399</v>
+      </c>
+      <c r="M83" t="s">
+        <v>105</v>
       </c>
       <c r="N83">
-        <v>0.25376456268412501</v>
+        <v>0.52146386072435602</v>
       </c>
       <c r="O83">
-        <v>2.90125221317283</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84">
-        <v>1974</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>19.1969893939395</v>
-      </c>
-      <c r="F84">
-        <v>14.3823853693182</v>
-      </c>
-      <c r="G84">
-        <v>23.1150002840909</v>
-      </c>
-      <c r="H84">
-        <v>4.4168430397725897</v>
-      </c>
-      <c r="I84">
-        <v>23.162785890151401</v>
-      </c>
-      <c r="J84">
-        <v>1.13277348315364</v>
-      </c>
-      <c r="K84">
-        <v>1.2221394325366099</v>
-      </c>
-      <c r="L84">
-        <v>0.65012487244519102</v>
-      </c>
-      <c r="M84">
-        <v>0.512084331590833</v>
-      </c>
-      <c r="N84">
-        <v>0.19151932467070501</v>
-      </c>
-      <c r="O84">
-        <v>3.1668777966456498</v>
+        <v>2.8043493808481301</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B85">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85">
-        <v>19.168253787878701</v>
+        <v>14.434212121212401</v>
       </c>
       <c r="F85">
-        <v>13.015369696968101</v>
+        <v>16.425354166667699</v>
       </c>
       <c r="G85">
-        <v>22.5764886363621</v>
+        <v>23.144208333333498</v>
       </c>
       <c r="H85">
-        <v>4.19306969696843</v>
+        <v>3.4033068181817701</v>
       </c>
       <c r="I85">
-        <v>22.7242575757565</v>
+        <v>22.953111742424301</v>
       </c>
       <c r="J85">
-        <v>0.61919574919366505</v>
+        <v>2.2163646329392201</v>
       </c>
       <c r="K85">
-        <v>0.18319833692621801</v>
+        <v>6.0776554430949004</v>
       </c>
       <c r="L85">
-        <v>0.30152919904383702</v>
+        <v>0.39317478730504501</v>
       </c>
       <c r="M85">
-        <v>0.88090461456198099</v>
+        <v>1.0200883305381001</v>
       </c>
       <c r="N85">
-        <v>0.443009630242446</v>
+        <v>0.17534264289265</v>
       </c>
       <c r="O85">
-        <v>3.1222973001973999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86">
-        <v>1971</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>19.251461647727002</v>
-      </c>
-      <c r="F86">
-        <v>16.663256818180301</v>
-      </c>
-      <c r="G86">
-        <v>23.185312973483299</v>
-      </c>
-      <c r="H86">
-        <v>3.8655859848471001</v>
-      </c>
-      <c r="I86">
-        <v>22.734808712119701</v>
-      </c>
-      <c r="J86">
-        <v>0.165242817675713</v>
-      </c>
-      <c r="K86">
-        <v>0.46501670991614402</v>
-      </c>
-      <c r="L86">
-        <v>0.13530537647254801</v>
-      </c>
-      <c r="M86">
-        <v>0.33607319644046502</v>
-      </c>
-      <c r="N86">
-        <v>0.384693182923602</v>
-      </c>
-      <c r="O86">
-        <v>3.2549188369173101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87">
-        <v>1971</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
-        <v>23.311657670454601</v>
-      </c>
-      <c r="F87">
-        <v>14.2255219696955</v>
-      </c>
-      <c r="G87">
-        <v>21.499787405301401</v>
-      </c>
-      <c r="H87">
-        <v>3.25530946969609</v>
-      </c>
-      <c r="I87">
-        <v>22.4476382575745</v>
-      </c>
-      <c r="J87">
-        <v>0.17711351133014699</v>
-      </c>
-      <c r="K87">
-        <v>0.157922913351915</v>
-      </c>
-      <c r="L87">
-        <v>5.5154439820433998E-2</v>
-      </c>
-      <c r="M87">
-        <v>5.6864663513921103E-2</v>
-      </c>
-      <c r="N87">
-        <v>0.123371545217446</v>
-      </c>
-      <c r="O87">
-        <v>3.1026172713322002</v>
+        <v>3.3145752854322601</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B88">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>22.289532196969699</v>
+        <v>13.6036013257576</v>
       </c>
       <c r="F88">
-        <v>13.740742424241001</v>
+        <v>15.286704166666601</v>
       </c>
       <c r="G88">
-        <v>21.991611742422698</v>
+        <v>19.179753503787399</v>
       </c>
       <c r="H88">
-        <v>2.8558257575747601</v>
+        <v>5.02473579545455</v>
       </c>
       <c r="I88">
-        <v>23.1675227272715</v>
+        <v>20.640766287878801</v>
       </c>
       <c r="J88">
-        <v>0.89714611089072704</v>
+        <v>1.14399163687367</v>
       </c>
       <c r="K88">
-        <v>0.33071583685017802</v>
+        <v>1.7068919626735499</v>
       </c>
       <c r="L88">
-        <v>9.9151045610143901E-2</v>
-      </c>
-      <c r="M88">
-        <v>0.43413150783221799</v>
+        <v>1.57194171027636</v>
+      </c>
+      <c r="M88" t="s">
+        <v>105</v>
       </c>
       <c r="N88">
-        <v>9.5545356052903402E-2</v>
+        <v>0.27780095626094398</v>
       </c>
       <c r="O88">
-        <v>3.2288648703750602</v>
+        <v>2.5233736130783102</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B89">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>24.341136363637201</v>
+        <v>23.839729545455398</v>
       </c>
       <c r="F89">
-        <v>13.2007897727269</v>
+        <v>11.900452367423901</v>
       </c>
       <c r="G89">
-        <v>21.649242424243599</v>
+        <v>22.056613636364901</v>
       </c>
       <c r="H89">
-        <v>6.6801988636374201</v>
+        <v>1.4121243371226599</v>
       </c>
       <c r="I89">
-        <v>20.493107954545899</v>
+        <v>21.0544213068187</v>
       </c>
       <c r="J89">
-        <v>0.36352663151875803</v>
+        <v>0.64123198752359101</v>
       </c>
       <c r="K89">
-        <v>8.9132593959779294E-2</v>
+        <v>0.382577647455418</v>
       </c>
       <c r="L89">
-        <v>0.38157454505872002</v>
+        <v>0.16931944020262499</v>
       </c>
       <c r="M89">
-        <v>0.30075698045646199</v>
+        <v>0.106947208575682</v>
       </c>
       <c r="N89">
-        <v>0.278836851851334</v>
+        <v>0.227065475780171</v>
       </c>
       <c r="O89">
-        <v>2.6386747252983298</v>
+        <v>3.4425622236887001</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>20.361012121212902</v>
+        <v>17.010133238636001</v>
       </c>
       <c r="F90">
-        <v>12.499350757575399</v>
+        <v>16.6862124053029</v>
       </c>
       <c r="G90">
-        <v>22.8166363636374</v>
+        <v>22.260772017045401</v>
       </c>
       <c r="H90">
-        <v>2.45285378787952</v>
+        <v>7.9244247159092298</v>
       </c>
       <c r="I90">
-        <v>21.685690151515601</v>
+        <v>22.212338446969198</v>
       </c>
       <c r="J90">
-        <v>0.42262637934742497</v>
+        <v>0.62817530378935604</v>
       </c>
       <c r="K90">
-        <v>1.4435868166624399</v>
+        <v>2.5758409648637199</v>
       </c>
       <c r="L90">
-        <v>0.44078223866384197</v>
+        <v>1.9635899310029199</v>
       </c>
       <c r="M90">
-        <v>0.83347852522584498</v>
+        <v>3.9939572586544099</v>
       </c>
       <c r="N90">
-        <v>0.60727742788618</v>
+        <v>0.11428364399867599</v>
       </c>
       <c r="O90">
-        <v>3.4028020645549399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91">
-        <v>1968</v>
-      </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>21.090823863635201</v>
-      </c>
-      <c r="F91">
-        <v>14.515842803028599</v>
-      </c>
-      <c r="G91">
-        <v>22.872842803029499</v>
-      </c>
-      <c r="H91">
-        <v>1.8559450757565801</v>
-      </c>
-      <c r="I91">
-        <v>23.2966515151506</v>
-      </c>
-      <c r="J91">
-        <v>0.810167168755071</v>
-      </c>
-      <c r="K91">
-        <v>0.93018570074579698</v>
-      </c>
-      <c r="L91">
-        <v>0.11876957878194901</v>
-      </c>
-      <c r="M91">
-        <v>0.123595240530915</v>
-      </c>
-      <c r="N91">
-        <v>8.3055476031618294E-2</v>
-      </c>
-      <c r="O91">
-        <v>3.49531129281486</v>
+        <v>2.5490576913790601</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B92">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>23.742122253786299</v>
+        <v>19.119294696970499</v>
       </c>
       <c r="F92">
-        <v>12.1456277462103</v>
+        <v>14.977582481060301</v>
       </c>
       <c r="G92">
-        <v>22.2703444128779</v>
+        <v>21.983992424243301</v>
       </c>
       <c r="H92">
-        <v>3.6298540719687602</v>
+        <v>4.4899165719703298</v>
       </c>
       <c r="I92">
-        <v>22.7888356060595</v>
+        <v>21.1229589962125</v>
       </c>
       <c r="J92">
-        <v>1.22025539099981</v>
+        <v>1.0091443291100299</v>
       </c>
       <c r="K92">
-        <v>1.1863717925683099</v>
+        <v>2.94327305489159</v>
       </c>
       <c r="L92">
-        <v>0.18163058100895299</v>
+        <v>0.37456665480418899</v>
       </c>
       <c r="M92">
-        <v>0.38508063827022998</v>
+        <v>0.240267840060753</v>
       </c>
       <c r="N92">
-        <v>0.35904931075438601</v>
+        <v>0.12109402920334</v>
       </c>
       <c r="O92">
-        <v>3.1587096800154599</v>
+        <v>2.99632802440127</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B93">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
@@ -4547,139 +4225,92 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>23.397690814394199</v>
+        <v>10.602315151515301</v>
       </c>
       <c r="F93">
-        <v>10.4266525568185</v>
+        <v>15.309191666667701</v>
       </c>
       <c r="G93">
-        <v>22.5968286931816</v>
+        <v>23.102716666666701</v>
       </c>
       <c r="H93">
-        <v>3.3450105113634399</v>
+        <v>4.7944772727272102</v>
       </c>
       <c r="I93">
-        <v>22.598010227273001</v>
+        <v>23.543155303030399</v>
       </c>
       <c r="J93">
-        <v>0.70949151256259602</v>
+        <v>5.4799588464576301</v>
       </c>
       <c r="K93">
-        <v>4.5927007151201502E-2</v>
+        <v>1.46066912983681</v>
       </c>
       <c r="L93">
-        <v>0.32182270322074902</v>
+        <v>0.169281277382928</v>
       </c>
       <c r="M93">
-        <v>0.39978628218073298</v>
+        <v>0.59609864940909796</v>
       </c>
       <c r="N93">
-        <v>0.35482213470129897</v>
+        <v>0.39993809865716001</v>
       </c>
       <c r="O93">
-        <v>3.2453000257532798</v>
+        <v>3.1116486393681999</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B94">
-        <v>1967</v>
+        <v>1977</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>15.983870454544</v>
+        <v>20.866051515151899</v>
       </c>
       <c r="F94">
-        <v>16.847796212119601</v>
+        <v>12.163309375001701</v>
       </c>
       <c r="G94">
-        <v>23.049396212120499</v>
+        <v>21.491493750000199</v>
       </c>
       <c r="H94">
-        <v>1.93562196969619</v>
+        <v>1.39709564393938</v>
       </c>
       <c r="I94">
-        <v>22.047406060605301</v>
+        <v>21.211079071970101</v>
       </c>
       <c r="J94">
-        <v>1.3124922367171701</v>
+        <v>0.62296134037165696</v>
       </c>
       <c r="K94">
-        <v>0.34186327564694602</v>
+        <v>0.202853753725</v>
       </c>
       <c r="L94">
-        <v>0.14826694408292301</v>
+        <v>0.210545330722545</v>
       </c>
       <c r="M94">
-        <v>0.88777095317435595</v>
+        <v>0.34310232568125199</v>
       </c>
       <c r="N94">
-        <v>0.21999389104879799</v>
+        <v>0.180046974857133</v>
       </c>
       <c r="O94">
-        <v>3.50903317881364</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95">
-        <v>1967</v>
-      </c>
-      <c r="C95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>13.7562387310597</v>
-      </c>
-      <c r="F95">
-        <v>18.0066779356046</v>
-      </c>
-      <c r="G95">
-        <v>23.5592279356053</v>
-      </c>
-      <c r="H95">
-        <v>3.9007129734840098</v>
-      </c>
-      <c r="I95">
-        <v>22.3892219696965</v>
-      </c>
-      <c r="J95">
-        <v>0.62569701402161004</v>
-      </c>
-      <c r="K95">
-        <v>0.22308331499543799</v>
-      </c>
-      <c r="L95">
-        <v>0.63944506996527195</v>
-      </c>
-      <c r="M95">
-        <v>0.52284169445357098</v>
-      </c>
-      <c r="N95">
-        <v>0.39366773115569498</v>
-      </c>
-      <c r="O95">
-        <v>3.30290580200018</v>
+        <v>3.3646456240879301</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>1965</v>
+        <v>1974</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
@@ -4688,137 +4319,795 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>14.541231060606099</v>
+        <v>20.105557812499999</v>
       </c>
       <c r="F96">
-        <v>14.5498401515153</v>
+        <v>14.569544507575401</v>
       </c>
       <c r="G96">
-        <v>21.867643181818199</v>
+        <v>23.370273816288201</v>
       </c>
       <c r="H96">
-        <v>2.51646136363635</v>
+        <v>3.9781295928034499</v>
       </c>
       <c r="I96">
-        <v>20.964827272727501</v>
+        <v>23.785977888257499</v>
       </c>
       <c r="J96">
-        <v>1.2639020681731801</v>
+        <v>0.338055588348393</v>
       </c>
       <c r="K96">
-        <v>1.94763657978048</v>
+        <v>0.66578365429605002</v>
       </c>
       <c r="L96">
-        <v>0.554059014211292</v>
+        <v>0.168366024114909</v>
       </c>
       <c r="M96">
-        <v>0.32972569194901602</v>
+        <v>0.41857827922695801</v>
       </c>
       <c r="N96">
-        <v>0.12829946149333399</v>
+        <v>0.101803284088977</v>
       </c>
       <c r="O96">
-        <v>3.2593741952098898</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97">
-        <v>1965</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97">
-        <v>16.453922348485101</v>
-      </c>
-      <c r="F97">
-        <v>13.654066287878999</v>
-      </c>
-      <c r="G97">
-        <v>23.0158920454545</v>
-      </c>
-      <c r="H97">
-        <v>4.2490132575756299</v>
-      </c>
-      <c r="I97">
-        <v>23.3395984848488</v>
-      </c>
-      <c r="J97">
-        <v>0.74968282053036595</v>
-      </c>
-      <c r="K97">
-        <v>0.308324546801165</v>
-      </c>
-      <c r="L97">
-        <v>0.57646087965638504</v>
-      </c>
-      <c r="M97">
-        <v>0.71458159816431999</v>
-      </c>
-      <c r="N97">
-        <v>0.30151014782875701</v>
-      </c>
-      <c r="O97">
-        <v>3.1766117263284501</v>
+        <v>3.2651762356210701</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98">
+        <v>1974</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>15.1998685606059</v>
+      </c>
+      <c r="F98">
+        <v>13.4555362689399</v>
+      </c>
+      <c r="G98">
+        <v>20.387598674242099</v>
+      </c>
+      <c r="H98">
+        <v>3.5647580492419002</v>
+      </c>
+      <c r="I98">
+        <v>21.929078219697001</v>
+      </c>
+      <c r="J98">
+        <v>1.4725239045465</v>
+      </c>
+      <c r="K98">
+        <v>1.99204716730057</v>
+      </c>
+      <c r="L98">
+        <v>0.83922815781523896</v>
+      </c>
+      <c r="M98">
+        <v>0.80946712140888699</v>
+      </c>
+      <c r="N98">
+        <v>0.25376456268412501</v>
+      </c>
+      <c r="O98">
+        <v>2.90125221317283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>1974</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>19.1969893939395</v>
+      </c>
+      <c r="F100">
+        <v>14.3823853693182</v>
+      </c>
+      <c r="G100">
+        <v>23.1150002840909</v>
+      </c>
+      <c r="H100">
+        <v>4.4168430397725897</v>
+      </c>
+      <c r="I100">
+        <v>23.162785890151401</v>
+      </c>
+      <c r="J100">
+        <v>1.13277348315364</v>
+      </c>
+      <c r="K100">
+        <v>1.2221394325366099</v>
+      </c>
+      <c r="L100">
+        <v>0.65012487244519102</v>
+      </c>
+      <c r="M100">
+        <v>0.512084331590833</v>
+      </c>
+      <c r="N100">
+        <v>0.19151932467070501</v>
+      </c>
+      <c r="O100">
+        <v>3.1668777966456498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101">
+        <v>1971</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>19.168253787878701</v>
+      </c>
+      <c r="F101">
+        <v>13.015369696968101</v>
+      </c>
+      <c r="G101">
+        <v>22.5764886363621</v>
+      </c>
+      <c r="H101">
+        <v>4.19306969696843</v>
+      </c>
+      <c r="I101">
+        <v>22.7242575757565</v>
+      </c>
+      <c r="J101">
+        <v>0.61919574919366505</v>
+      </c>
+      <c r="K101">
+        <v>0.18319833692621801</v>
+      </c>
+      <c r="L101">
+        <v>0.30152919904383702</v>
+      </c>
+      <c r="M101">
+        <v>0.88090461456198099</v>
+      </c>
+      <c r="N101">
+        <v>0.443009630242446</v>
+      </c>
+      <c r="O101">
+        <v>3.1222973001973999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102">
+        <v>1971</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>19.251461647727002</v>
+      </c>
+      <c r="F102">
+        <v>16.663256818180301</v>
+      </c>
+      <c r="G102">
+        <v>23.185312973483299</v>
+      </c>
+      <c r="H102">
+        <v>3.8655859848471001</v>
+      </c>
+      <c r="I102">
+        <v>22.734808712119701</v>
+      </c>
+      <c r="J102">
+        <v>0.165242817675713</v>
+      </c>
+      <c r="K102">
+        <v>0.46501670991614402</v>
+      </c>
+      <c r="L102">
+        <v>0.13530537647254801</v>
+      </c>
+      <c r="M102">
+        <v>0.33607319644046502</v>
+      </c>
+      <c r="N102">
+        <v>0.384693182923602</v>
+      </c>
+      <c r="O102">
+        <v>3.2549188369173101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103">
+        <v>1971</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>23.311657670454601</v>
+      </c>
+      <c r="F103">
+        <v>14.2255219696955</v>
+      </c>
+      <c r="G103">
+        <v>21.499787405301401</v>
+      </c>
+      <c r="H103">
+        <v>3.25530946969609</v>
+      </c>
+      <c r="I103">
+        <v>22.4476382575745</v>
+      </c>
+      <c r="J103">
+        <v>0.17711351133014699</v>
+      </c>
+      <c r="K103">
+        <v>0.157922913351915</v>
+      </c>
+      <c r="L103">
+        <v>5.5154439820433998E-2</v>
+      </c>
+      <c r="M103">
+        <v>5.6864663513921103E-2</v>
+      </c>
+      <c r="N103">
+        <v>0.123371545217446</v>
+      </c>
+      <c r="O103">
+        <v>3.1026172713322002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104">
+        <v>1971</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>22.289532196969699</v>
+      </c>
+      <c r="F104">
+        <v>13.740742424241001</v>
+      </c>
+      <c r="G104">
+        <v>21.991611742422698</v>
+      </c>
+      <c r="H104">
+        <v>2.8558257575747601</v>
+      </c>
+      <c r="I104">
+        <v>23.1675227272715</v>
+      </c>
+      <c r="J104">
+        <v>0.89714611089072704</v>
+      </c>
+      <c r="K104">
+        <v>0.33071583685017802</v>
+      </c>
+      <c r="L104">
+        <v>9.9151045610143901E-2</v>
+      </c>
+      <c r="M104">
+        <v>0.43413150783221799</v>
+      </c>
+      <c r="N104">
+        <v>9.5545356052903402E-2</v>
+      </c>
+      <c r="O104">
+        <v>3.2288648703750602</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105">
+        <v>1971</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>24.341136363637201</v>
+      </c>
+      <c r="F105">
+        <v>13.2007897727269</v>
+      </c>
+      <c r="G105">
+        <v>21.649242424243599</v>
+      </c>
+      <c r="H105">
+        <v>6.6801988636374201</v>
+      </c>
+      <c r="I105">
+        <v>20.493107954545899</v>
+      </c>
+      <c r="J105">
+        <v>0.36352663151875803</v>
+      </c>
+      <c r="K105">
+        <v>8.9132593959779294E-2</v>
+      </c>
+      <c r="L105">
+        <v>0.38157454505872002</v>
+      </c>
+      <c r="M105">
+        <v>0.30075698045646199</v>
+      </c>
+      <c r="N105">
+        <v>0.278836851851334</v>
+      </c>
+      <c r="O105">
+        <v>2.6386747252983298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106">
+        <v>1971</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>20.361012121212902</v>
+      </c>
+      <c r="F106">
+        <v>12.499350757575399</v>
+      </c>
+      <c r="G106">
+        <v>22.8166363636374</v>
+      </c>
+      <c r="H106">
+        <v>2.45285378787952</v>
+      </c>
+      <c r="I106">
+        <v>21.685690151515601</v>
+      </c>
+      <c r="J106">
+        <v>0.42262637934742497</v>
+      </c>
+      <c r="K106">
+        <v>1.4435868166624399</v>
+      </c>
+      <c r="L106">
+        <v>0.44078223866384197</v>
+      </c>
+      <c r="M106">
+        <v>0.83347852522584498</v>
+      </c>
+      <c r="N106">
+        <v>0.60727742788618</v>
+      </c>
+      <c r="O106">
+        <v>3.4028020645549399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110">
+        <v>1968</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>21.090823863635201</v>
+      </c>
+      <c r="F110">
+        <v>14.515842803028599</v>
+      </c>
+      <c r="G110">
+        <v>22.872842803029499</v>
+      </c>
+      <c r="H110">
+        <v>1.8559450757565801</v>
+      </c>
+      <c r="I110">
+        <v>23.2966515151506</v>
+      </c>
+      <c r="J110">
+        <v>0.810167168755071</v>
+      </c>
+      <c r="K110">
+        <v>0.93018570074579698</v>
+      </c>
+      <c r="L110">
+        <v>0.11876957878194901</v>
+      </c>
+      <c r="M110">
+        <v>0.123595240530915</v>
+      </c>
+      <c r="N110">
+        <v>8.3055476031618294E-2</v>
+      </c>
+      <c r="O110">
+        <v>3.49531129281486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111">
+        <v>1968</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>23.742122253786299</v>
+      </c>
+      <c r="F111">
+        <v>12.1456277462103</v>
+      </c>
+      <c r="G111">
+        <v>22.2703444128779</v>
+      </c>
+      <c r="H111">
+        <v>3.6298540719687602</v>
+      </c>
+      <c r="I111">
+        <v>22.7888356060595</v>
+      </c>
+      <c r="J111">
+        <v>1.22025539099981</v>
+      </c>
+      <c r="K111">
+        <v>1.1863717925683099</v>
+      </c>
+      <c r="L111">
+        <v>0.18163058100895299</v>
+      </c>
+      <c r="M111">
+        <v>0.38508063827022998</v>
+      </c>
+      <c r="N111">
+        <v>0.35904931075438601</v>
+      </c>
+      <c r="O111">
+        <v>3.1587096800154599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112">
+        <v>1968</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>23.397690814394199</v>
+      </c>
+      <c r="F112">
+        <v>10.4266525568185</v>
+      </c>
+      <c r="G112">
+        <v>22.5968286931816</v>
+      </c>
+      <c r="H112">
+        <v>3.3450105113634399</v>
+      </c>
+      <c r="I112">
+        <v>22.598010227273001</v>
+      </c>
+      <c r="J112">
+        <v>0.70949151256259602</v>
+      </c>
+      <c r="K112">
+        <v>4.5927007151201502E-2</v>
+      </c>
+      <c r="L112">
+        <v>0.32182270322074902</v>
+      </c>
+      <c r="M112">
+        <v>0.39978628218073298</v>
+      </c>
+      <c r="N112">
+        <v>0.35482213470129897</v>
+      </c>
+      <c r="O112">
+        <v>3.2453000257532798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116">
+        <v>1967</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>15.983870454544</v>
+      </c>
+      <c r="F116">
+        <v>16.847796212119601</v>
+      </c>
+      <c r="G116">
+        <v>23.049396212120499</v>
+      </c>
+      <c r="H116">
+        <v>1.93562196969619</v>
+      </c>
+      <c r="I116">
+        <v>22.047406060605301</v>
+      </c>
+      <c r="J116">
+        <v>1.3124922367171701</v>
+      </c>
+      <c r="K116">
+        <v>0.34186327564694602</v>
+      </c>
+      <c r="L116">
+        <v>0.14826694408292301</v>
+      </c>
+      <c r="M116">
+        <v>0.88777095317435595</v>
+      </c>
+      <c r="N116">
+        <v>0.21999389104879799</v>
+      </c>
+      <c r="O116">
+        <v>3.50903317881364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117">
+        <v>1967</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>13.7562387310597</v>
+      </c>
+      <c r="F117">
+        <v>18.0066779356046</v>
+      </c>
+      <c r="G117">
+        <v>23.5592279356053</v>
+      </c>
+      <c r="H117">
+        <v>3.9007129734840098</v>
+      </c>
+      <c r="I117">
+        <v>22.3892219696965</v>
+      </c>
+      <c r="J117">
+        <v>0.62569701402161004</v>
+      </c>
+      <c r="K117">
+        <v>0.22308331499543799</v>
+      </c>
+      <c r="L117">
+        <v>0.63944506996527195</v>
+      </c>
+      <c r="M117">
+        <v>0.52284169445357098</v>
+      </c>
+      <c r="N117">
+        <v>0.39366773115569498</v>
+      </c>
+      <c r="O117">
+        <v>3.30290580200018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118">
+        <v>1965</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>14.541231060606099</v>
+      </c>
+      <c r="F118">
+        <v>14.5498401515153</v>
+      </c>
+      <c r="G118">
+        <v>21.867643181818199</v>
+      </c>
+      <c r="H118">
+        <v>2.51646136363635</v>
+      </c>
+      <c r="I118">
+        <v>20.964827272727501</v>
+      </c>
+      <c r="J118">
+        <v>1.2639020681731801</v>
+      </c>
+      <c r="K118">
+        <v>1.94763657978048</v>
+      </c>
+      <c r="L118">
+        <v>0.554059014211292</v>
+      </c>
+      <c r="M118">
+        <v>0.32972569194901602</v>
+      </c>
+      <c r="N118">
+        <v>0.12829946149333399</v>
+      </c>
+      <c r="O118">
+        <v>3.2593741952098898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121">
+        <v>1965</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>16.453922348485101</v>
+      </c>
+      <c r="F121">
+        <v>13.654066287878999</v>
+      </c>
+      <c r="G121">
+        <v>23.0158920454545</v>
+      </c>
+      <c r="H121">
+        <v>4.2490132575756299</v>
+      </c>
+      <c r="I121">
+        <v>23.3395984848488</v>
+      </c>
+      <c r="J121">
+        <v>0.74968282053036595</v>
+      </c>
+      <c r="K121">
+        <v>0.308324546801165</v>
+      </c>
+      <c r="L121">
+        <v>0.57646087965638504</v>
+      </c>
+      <c r="M121">
+        <v>0.71458159816431999</v>
+      </c>
+      <c r="N121">
+        <v>0.30151014782875701</v>
+      </c>
+      <c r="O121">
+        <v>3.1766117263284501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>69</v>
       </c>
-      <c r="B98">
+      <c r="B123">
         <v>1965</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C123" t="s">
         <v>20</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
         <v>17.064951988635102</v>
       </c>
-      <c r="F98">
+      <c r="F123">
         <v>17.2376313446956</v>
       </c>
-      <c r="G98">
+      <c r="G123">
         <v>23.602448011362998</v>
       </c>
-      <c r="H98">
+      <c r="H123">
         <v>4.2803898674236303</v>
       </c>
-      <c r="I98">
+      <c r="I123">
         <v>21.7826431818178</v>
       </c>
-      <c r="J98">
+      <c r="J123">
         <v>0.29334831117605498</v>
       </c>
-      <c r="K98">
+      <c r="K123">
         <v>1.18514254468597</v>
       </c>
-      <c r="L98">
+      <c r="L123">
         <v>0.32553234019152499</v>
       </c>
-      <c r="M98">
+      <c r="M123">
         <v>1.8096317723955799</v>
       </c>
-      <c r="N98">
+      <c r="N123">
         <v>0.48922515186778698</v>
       </c>
-      <c r="O98">
+      <c r="O123">
         <v>3.2552490288865998</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O98">
-    <sortCondition descending="1" ref="B1:B98"/>
-    <sortCondition ref="C1:C98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O123">
+    <sortCondition descending="1" ref="B1:B123"/>
+    <sortCondition ref="C1:C123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/final/all.data.xlsx
+++ b/data/final/all.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/GitHub/CSIA_lab_work/data/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D99AE-415B-AC44-956C-0D22E2ABCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13864B72-CD4B-C047-A31D-C239C92B5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="500" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="139">
   <si>
     <t>Year</t>
   </si>
@@ -389,6 +390,54 @@
   </si>
   <si>
     <t>86_K_3</t>
+  </si>
+  <si>
+    <t>84_W_3</t>
+  </si>
+  <si>
+    <t>83_K_3</t>
+  </si>
+  <si>
+    <t>83_E_2</t>
+  </si>
+  <si>
+    <t>83_E_3</t>
+  </si>
+  <si>
+    <t>80_K_3</t>
+  </si>
+  <si>
+    <t>80_E_2</t>
+  </si>
+  <si>
+    <t>80_E_3</t>
+  </si>
+  <si>
+    <t>80_W_3</t>
+  </si>
+  <si>
+    <t>77_K_3</t>
+  </si>
+  <si>
+    <t>74_E_3</t>
+  </si>
+  <si>
+    <t>74_K_3</t>
+  </si>
+  <si>
+    <t>74_W_3</t>
+  </si>
+  <si>
+    <t>68_K_3</t>
+  </si>
+  <si>
+    <t>65_K_3</t>
+  </si>
+  <si>
+    <t>65_E_3</t>
+  </si>
+  <si>
+    <t>65_W_3</t>
   </si>
 </sst>
 </file>
@@ -722,13 +771,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -744,37 +796,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -791,37 +843,37 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>3.1489286030454</v>
+      </c>
+      <c r="F2">
         <v>19.471191903409199</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13.689508948864299</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20.055553693181398</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.48411775568087</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21.520482812500099</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.08574779808152</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.96096795888022801</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7.7191151061657597E-3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.83127091519323804</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.12014849066705401</v>
-      </c>
-      <c r="O2">
-        <v>3.1489286030454</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -838,37 +890,37 @@
         <v>2</v>
       </c>
       <c r="E3">
+        <v>3.4006799135118899</v>
+      </c>
+      <c r="F3">
         <v>17.199104166666402</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.8033428030308</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.638512310604899</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.2897121212109801</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22.089698863636201</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.7679986176674001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.1253359916883701</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.38651570066350899</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.66999077486922798</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.11811469953366099</v>
-      </c>
-      <c r="O3">
-        <v>3.4006799135118899</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -885,37 +937,37 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <v>3.0982570526441102</v>
+      </c>
+      <c r="F4">
         <v>22.732807102272599</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13.2155851325768</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>23.079844128787101</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.86614933711971</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23.563267708333498</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.57248166492916297</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.231793105493695</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.13484975845293801</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.84059122724241198</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.18563145565198699</v>
-      </c>
-      <c r="O4">
-        <v>3.0982570526441102</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -932,37 +984,37 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>3.1037359340573101</v>
+      </c>
+      <c r="F5">
         <v>15.674013857323301</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>14.715195517676699</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.9193641098488</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.6669884154041998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21.603291508838399</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.56761871772595496</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.382050605543229</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.28262584565195198</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.87938105861025995</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.20776400582854801</v>
-      </c>
-      <c r="O5">
-        <v>3.1037359340573101</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -979,37 +1031,37 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <v>3.0738899530002799</v>
+      </c>
+      <c r="F6">
         <v>17.829706155303199</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13.298605492424301</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>22.822145928030501</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.7804828598484903</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.751286458333801</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.51283727694324299</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.59296027716572397</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.175238409725921</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.98713566856271695</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.22168868846454501</v>
-      </c>
-      <c r="O6">
-        <v>3.0738899530002799</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1026,37 +1078,37 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>2.8191280233281999</v>
+      </c>
+      <c r="F7">
         <v>20.980894081439502</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.2767990056819</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20.456195549242501</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.2131517045454396</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21.443118655303302</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.95962779844855</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.587661009841843</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.37977371520988301</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.43369373768621799</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.18081396966260399</v>
-      </c>
-      <c r="O7">
-        <v>2.8191280233281999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1073,37 +1125,37 @@
         <v>2</v>
       </c>
       <c r="E8">
+        <v>2.9976174859429898</v>
+      </c>
+      <c r="F8">
         <v>16.160062215909001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16.770415814394099</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>22.178386837121401</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.6752073863638604</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>21.6405293110831</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.4111830653238</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.2132071018409101</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.35158428600518099</v>
       </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8">
         <v>0.24169796009913599</v>
-      </c>
-      <c r="O8">
-        <v>2.9976174859429898</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1119,6 +1171,36 @@
       <c r="D9">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1134,37 +1216,37 @@
         <v>2</v>
       </c>
       <c r="E10">
+        <v>3.12108829084044</v>
+      </c>
+      <c r="F10">
         <v>17.351394696969599</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14.9413507575756</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>23.612276515151599</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.2373931818181001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>22.8602413350457</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.834711738013167</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.40252825609840798</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.46359343129610697</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.43167780176725901</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3.7474449729002601E-2</v>
-      </c>
-      <c r="O10">
-        <v>3.12108829084044</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1181,37 +1263,37 @@
         <v>3</v>
       </c>
       <c r="E11">
+        <v>3.2967590297449898</v>
+      </c>
+      <c r="F11">
         <v>16.243347443181602</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12.708854829545499</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>24.139085700757601</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.5239669507579503</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23.130793324776</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.768146296749184</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.9757671953484699</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.44586121362325398</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.49351886152236901</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6.8775895895154995E-2</v>
-      </c>
-      <c r="O11">
-        <v>3.2967590297449898</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1227,6 +1309,36 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1242,37 +1354,37 @@
         <v>2</v>
       </c>
       <c r="E13">
+        <v>3.09392705382434</v>
+      </c>
+      <c r="F13">
         <v>22.7500132575754</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20.659789772726999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23.620975378787499</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.4378503787876902</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>24.037172015405101</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.21758944316058</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.615159045078</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.25643757313578902</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.207363602972023</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.37276716429001899</v>
-      </c>
-      <c r="O13">
-        <v>3.09392705382434</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1289,37 +1401,37 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <v>3.1154395763584799</v>
+      </c>
+      <c r="F14">
         <v>25.5220957386367</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10.874543655304899</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21.518581249999801</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.1835778409089102</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>23.292986079545699</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.41870590482652198</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.35578067315169998</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.55376887809945696</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.264365502145259</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.87083925659769201</v>
-      </c>
-      <c r="O14">
-        <v>3.1154395763584799</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1335,6 +1447,36 @@
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1349,6 +1491,36 @@
       <c r="D16">
         <v>3</v>
       </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1364,37 +1536,37 @@
         <v>2</v>
       </c>
       <c r="E17">
+        <v>3.3676034155292802</v>
+      </c>
+      <c r="F17">
         <v>17.194352746212299</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>14.9321413825765</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>23.878114299242501</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3.7628341856058198</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>23.9200067234855</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.72285838611795294</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.53018147211214095</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.44290727382545497</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.34845251244554598</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.29124348666566402</v>
-      </c>
-      <c r="O17">
-        <v>3.3676034155292802</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1411,37 +1583,37 @@
         <v>2</v>
       </c>
       <c r="E18">
+        <v>3.32367460457986</v>
+      </c>
+      <c r="F18">
         <v>16.170347821969902</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15.9840576704549</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>23.6206793560604</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.8155366477265602</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>23.665111458333399</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.43621084281391898</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.82553894598009103</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.40943630800090203</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.39217919100183</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.25347951683019998</v>
-      </c>
-      <c r="O18">
-        <v>3.32367460457986</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1458,37 +1630,37 @@
         <v>3</v>
       </c>
       <c r="E19">
+        <v>3.0720285941926901</v>
+      </c>
+      <c r="F19">
         <v>16.464097443182101</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>12.8817800189395</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23.0396801136365</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.0111582386361198</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>23.364448958333401</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.503435705731199</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.3575074661831501</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8.0547227386720294E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.16121565922432399</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.15212891269404699</v>
-      </c>
-      <c r="O19">
-        <v>3.0720285941926901</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1505,37 +1677,37 @@
         <v>2</v>
       </c>
       <c r="E20">
+        <v>3.03723620321494</v>
+      </c>
+      <c r="F20">
         <v>21.904619886362902</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>13.595218560606201</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>19.361971212119698</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.5790836174222</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20.187763636362899</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.9747284297682901</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.896100341526889</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.42530581108263499</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.554908588375714</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.53933165741891698</v>
-      </c>
-      <c r="O20">
-        <v>3.03723620321494</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1552,37 +1724,37 @@
         <v>3</v>
       </c>
       <c r="E21">
+        <v>3.0853949373337599</v>
+      </c>
+      <c r="F21">
         <v>19.099367424241802</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15.219098484848599</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21.474636363635099</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.3517481060587602</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>21.778575757575201</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.31256932432631301</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.63505186119150503</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.343051983296773</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.1333987692540599</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.63403668307301997</v>
-      </c>
-      <c r="O21">
-        <v>3.0853949373337599</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1599,37 +1771,37 @@
         <v>3</v>
       </c>
       <c r="E22">
+        <v>3.26443453500127</v>
+      </c>
+      <c r="F22">
         <v>20.875558997050099</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>13.6511703539823</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>20.523687315634401</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.13677949852541</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20.2356327433628</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.62617859935536002</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.167089433386167</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.22231669356855799</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.46853696250818999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>7.5525142601720802E-2</v>
-      </c>
-      <c r="O22">
-        <v>3.26443453500127</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1646,37 +1818,37 @@
         <v>2</v>
       </c>
       <c r="E23">
+        <v>2.4377893354579698</v>
+      </c>
+      <c r="F23">
         <v>15.0271298295453</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>16.569674431818299</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>19.476588162878301</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5.9257954545449998</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>20.936930681818101</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.57071849655978402</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.2440384039889598</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.36070429714825503</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.60318013504242896</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.52333792587616701</v>
-      </c>
-      <c r="O23">
-        <v>2.4377893354579698</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1693,37 +1865,37 @@
         <v>2</v>
       </c>
       <c r="E24">
+        <v>2.9729312803136501</v>
+      </c>
+      <c r="F24">
         <v>18.556813541666799</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>13.452238399622001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>21.782171543559901</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.4532767045455399</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>22.259632670454501</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.91858420511985195</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>7.0174429431738794E-2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.68496148291991</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.82908839684969104</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.38026809837207198</v>
-      </c>
-      <c r="O24">
-        <v>2.9729312803136501</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1740,37 +1912,37 @@
         <v>3</v>
       </c>
       <c r="E25">
+        <v>3.1234903143509301</v>
+      </c>
+      <c r="F25">
         <v>16.173484185606199</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>14.1938724905309</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>22.7720126420447</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.3801710227271196</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>21.9993953598484</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.74661925400283902</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.96831251829311005</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.354048414184226</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.83847214499980305</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.27407905272535099</v>
-      </c>
-      <c r="O25">
-        <v>3.1234903143509301</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1787,37 +1959,37 @@
         <v>2</v>
       </c>
       <c r="E26">
+        <v>3.01541439984118</v>
+      </c>
+      <c r="F26">
         <v>22.640605965908801</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>15.512031155303999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>21.733722916666</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.1048972537872901</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>22.490341856060098</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3.54492051359018</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.71993256884775703</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.311818082376973</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.31771835939710402</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.25670348854264802</v>
-      </c>
-      <c r="O26">
-        <v>3.01541439984118</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1834,37 +2006,37 @@
         <v>3</v>
       </c>
       <c r="E27">
+        <v>3.4725875075113701</v>
+      </c>
+      <c r="F27">
         <v>15.3910435606058</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>14.858153409092001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>23.076458333332798</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.2199905303025398</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>22.1677765151511</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.72801686597369497</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.39946501107159899</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.30932560352708099</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.30546241713889899</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5.7223860709326398E-2</v>
-      </c>
-      <c r="O27">
-        <v>3.4725875075113701</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1880,6 +2052,36 @@
       <c r="D28">
         <v>3</v>
       </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1895,37 +2097,37 @@
         <v>2</v>
       </c>
       <c r="E29">
+        <v>3.0984708987895502</v>
+      </c>
+      <c r="F29">
         <v>22.481496212121201</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13.518598484849599</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>21.499708333332102</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3.28450378787789</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>21.941066287879</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3.1946308036733999</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.26120955610044899</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.35031912317171998</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.93251952134427596</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.16917726220291801</v>
-      </c>
-      <c r="O29">
-        <v>3.0984708987895502</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1941,6 +2143,36 @@
       <c r="D30">
         <v>3</v>
       </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1956,37 +2188,37 @@
         <v>2</v>
       </c>
       <c r="E31">
+        <v>3.20857728533566</v>
+      </c>
+      <c r="F31">
         <v>19.473023484848401</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>14.9474699337123</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>23.5506189393938</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4.5580633049240298</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>22.681200757575802</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.40019548402573801</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.489075231970307</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.62520566986723503</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.2373013912647199</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.391932605884105</v>
-      </c>
-      <c r="O31">
-        <v>3.20857728533566</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2003,37 +2235,37 @@
         <v>2</v>
       </c>
       <c r="E32">
+        <v>2.4051562902394501</v>
+      </c>
+      <c r="F32">
         <v>17.174147159090801</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>16.081215530303599</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>19.638522916665799</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6.3181195075752701</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>22.1427538825758</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>9.0555139732303405E-2</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.66775273333767504</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.72547168315492805</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.59593228839099199</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.36746486500400299</v>
-      </c>
-      <c r="O32">
-        <v>2.4051562902394501</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2050,37 +2282,37 @@
         <v>3</v>
       </c>
       <c r="E33">
+        <v>3.3232860981196302</v>
+      </c>
+      <c r="F33">
         <v>23.418755031909701</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>13.687078055965999</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>22.149170348551401</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.3467704958267799</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>21.944751104565601</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.6587388083822401</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.17517910508831</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.30151629250316903</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.23857181677546099</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>8.4375127133891406E-2</v>
-      </c>
-      <c r="O33">
-        <v>3.3232860981196302</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2096,6 +2328,36 @@
       <c r="D34">
         <v>3</v>
       </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2111,37 +2373,37 @@
         <v>2</v>
       </c>
       <c r="E35">
+        <v>2.1443236376244901</v>
+      </c>
+      <c r="F35">
         <v>18.580297348484301</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>17.2908322916667</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>21.1779991950755</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9.6990743134466193</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>22.388549810605699</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2.2892912231021998</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.58114136564354002</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.93652045573112197</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2.31890002321127</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.36259277902098702</v>
-      </c>
-      <c r="O35">
-        <v>2.1443236376244901</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2157,6 +2419,36 @@
       <c r="D36">
         <v>3</v>
       </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -2172,37 +2464,37 @@
         <v>2</v>
       </c>
       <c r="E37">
+        <v>2.8572119387930499</v>
+      </c>
+      <c r="F37">
         <v>22.465371306818501</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>15.8226317234859</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>19.8380604166666</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.3261441287876701</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>21.5692862689395</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3.4528575551829999</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.67484079848313905</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.38756028232377099</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.51429194851550297</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.25132949356466</v>
-      </c>
-      <c r="O37">
-        <v>2.8572119387930499</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2219,37 +2511,37 @@
         <v>3</v>
       </c>
       <c r="E38">
+        <v>3.14508070295263</v>
+      </c>
+      <c r="F38">
         <v>15.786014492753401</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>14.6195428194993</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>20.953984189722799</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.4097144268772599</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>22.2694624505924</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1.6260448076863201</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.64559176314575395</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.24725494162759601</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.42910900786316902</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.30015800447304802</v>
-      </c>
-      <c r="O38">
-        <v>3.14508070295263</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2266,37 +2558,37 @@
         <v>2</v>
       </c>
       <c r="E39">
+        <v>3.15120316121557</v>
+      </c>
+      <c r="F39">
         <v>18.962589678030401</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>12.457318939394399</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>22.991095738636101</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4.4036014204542004</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>23.045242945075898</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1.83070718911826</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.3196200830839699</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.307788838374426</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.64439443985760403</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.21884963785061201</v>
-      </c>
-      <c r="O39">
-        <v>3.15120316121557</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2313,37 +2605,37 @@
         <v>3</v>
       </c>
       <c r="E40">
+        <v>3.4246643675329</v>
+      </c>
+      <c r="F40">
         <v>19.222731884057499</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>13.1392154150197</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>24.097974308299701</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3.57984387351744</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>23.5227931488797</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1.4134694592580099</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.47572634916769402</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.24263483728021701</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>1.2314272457172699</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>7.2830539369015804E-2</v>
-      </c>
-      <c r="O40">
-        <v>3.4246643675329</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2360,37 +2652,37 @@
         <v>2</v>
       </c>
       <c r="E41">
+        <v>2.5713798394712</v>
+      </c>
+      <c r="F41">
         <v>16.796790151515001</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>15.387989393939799</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>23.208456818181102</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>8.7145151515144104</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>24.426306060605999</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.78226278598086396</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.46138470931339</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.23113823490810201</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.20990104704923501</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.26324713335760302</v>
-      </c>
-      <c r="O41">
-        <v>2.5713798394712</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2407,37 +2699,37 @@
         <v>3</v>
       </c>
       <c r="E42">
+        <v>2.7723229595888199</v>
+      </c>
+      <c r="F42">
         <v>16.4150925189393</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>18.496712784091301</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>22.9270437499998</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.0144436553027498</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>23.3633702651513</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.4579488703363901</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.20417782791313899</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.45783096844148602</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.74194034707994905</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.39707117278541099</v>
-      </c>
-      <c r="O42">
-        <v>2.7723229595888199</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2454,37 +2746,37 @@
         <v>2</v>
       </c>
       <c r="E43">
+        <v>3.2317045454544302</v>
+      </c>
+      <c r="F43">
         <v>18.82105558712</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>13.0665582386364</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>22.5447310606027</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>3.38889696969445</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>22.925274715908401</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1.68180260639526</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.82442692136926299</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.24918219294480101</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.30320637890611701</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.29705434531692498</v>
-      </c>
-      <c r="O43">
-        <v>3.2317045454544302</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2501,37 +2793,37 @@
         <v>2</v>
       </c>
       <c r="E44">
+        <v>3.0357562880932401</v>
+      </c>
+      <c r="F44">
         <v>16.134823863635301</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>14.550028409090899</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>23.1676818181787</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>5.3952424242403998</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>23.443418560605501</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>9.9604133889723598E-2</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1.8100585806652201</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>6.5628085326572494E-2</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.7108904653068</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.48500100816012398</v>
-      </c>
-      <c r="O44">
-        <v>3.0357562880932401</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2548,37 +2840,37 @@
         <v>3</v>
       </c>
       <c r="E45">
+        <v>2.9526729695145502</v>
+      </c>
+      <c r="F45">
         <v>17.236741619318099</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>14.622726231060501</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>22.246496543560198</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.0606253787874698</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>22.929770265151301</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.72475380589166405</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.301369759311787</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.35660622246304802</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.58909533874144904</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.24585894510642001</v>
-      </c>
-      <c r="O45">
-        <v>2.9526729695145502</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2595,37 +2887,37 @@
         <v>2</v>
       </c>
       <c r="E46">
+        <v>2.6065299503222201</v>
+      </c>
+      <c r="F46">
         <v>13.633384057970799</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>13.399521080368901</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>21.097020421606899</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.3549189723320101</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>21.996361001317201</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.98099030447462499</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>2.3050261256776401</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.51327355730724999</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.96932082505778405</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.36600048450578299</v>
-      </c>
-      <c r="O46">
-        <v>2.6065299503222201</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2642,37 +2934,37 @@
         <v>3</v>
       </c>
       <c r="E47">
+        <v>2.7834311958106501</v>
+      </c>
+      <c r="F47">
         <v>15.178737121211199</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>15.074655303030299</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>22.280393939391502</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>6.2893696969683299</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>23.944499242423799</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.63114745278900397</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.81471045059859</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.49423704223447701</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.422905683693657</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.39257435828117199</v>
-      </c>
-      <c r="O47">
-        <v>2.7834311958106501</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2689,37 +2981,37 @@
         <v>3</v>
       </c>
       <c r="E48">
+        <v>2.70755634930407</v>
+      </c>
+      <c r="F48">
         <v>14.079340579709999</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>11.4491956521739</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>21.935340579709798</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>6.4799927536230797</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>22.840913043477901</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1.1292606465772199</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>2.3621063689062498</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.28945350846698298</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.75609845462708702</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.198978988654363</v>
-      </c>
-      <c r="O48">
-        <v>2.70755634930407</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -2736,37 +3028,37 @@
         <v>2</v>
       </c>
       <c r="E49">
+        <v>3.1858869762092499</v>
+      </c>
+      <c r="F49">
         <v>18.2147687776142</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>14.268779086893399</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>21.969448699067001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>3.1370866470297298</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>21.914201276386901</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.79247672447329698</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.54826883342476995</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.45313238820768598</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.799023331921763</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.450381751646661</v>
-      </c>
-      <c r="O49">
-        <v>3.1858869762092499</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -2783,37 +3075,37 @@
         <v>2</v>
       </c>
       <c r="E50">
+        <v>3.1980770479225602</v>
+      </c>
+      <c r="F50">
         <v>20.2107838068181</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>13.115637689394701</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>21.303992140150399</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.3855681818171499</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>21.8010147727272</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1.88016165710851</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.4597959741786499</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.28636027537133102</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.405797254393856</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>0.25670956683739099</v>
-      </c>
-      <c r="O50">
-        <v>3.1980770479225602</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -2830,37 +3122,37 @@
         <v>3</v>
       </c>
       <c r="E51">
+        <v>2.8976157273165999</v>
+      </c>
+      <c r="F51">
         <v>15.298279086892601</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>14.588471526756001</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>22.5070741286203</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.7099070937650804</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>23.150788905252899</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1.1002051158653601</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>3.2342867647959599</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0.24571149037135201</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.91041999563978304</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.102247579810678</v>
-      </c>
-      <c r="O51">
-        <v>2.8976157273165999</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -2876,6 +3168,36 @@
       <c r="D52">
         <v>3</v>
       </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2891,37 +3213,37 @@
         <v>2</v>
       </c>
       <c r="E53">
+        <v>2.6732126148166202</v>
+      </c>
+      <c r="F53">
         <v>14.4480853219689</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>13.8847523674242</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>22.186056818179999</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>6.97317575757463</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>22.897723768939201</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.434537012040077</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>0.153398423492314</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0.288432086132552</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.74596832678949299</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.14380879258729801</v>
-      </c>
-      <c r="O53">
-        <v>2.6732126148166202</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -2937,6 +3259,36 @@
       <c r="D54">
         <v>3</v>
       </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L54" t="s">
+        <v>105</v>
+      </c>
+      <c r="N54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O54" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2952,37 +3304,37 @@
         <v>2</v>
       </c>
       <c r="E55">
+        <v>2.6498530989783098</v>
+      </c>
+      <c r="F55">
         <v>15.129172064393</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>14.2594588068182</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>21.872011363634201</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>6.8240484848473102</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>23.862976420454199</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.587784367641629</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2.0685844901073001</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.56455831500201503</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.35662019398093298</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>0.40334913639786901</v>
-      </c>
-      <c r="O55">
-        <v>2.6498530989783098</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -2999,37 +3351,37 @@
         <v>2</v>
       </c>
       <c r="E56">
+        <v>2.9903138144903298</v>
+      </c>
+      <c r="F56">
         <v>17.727784090909001</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>14.8295473484848</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>22.217017045452899</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>4.7654015151511597</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>22.930003787878199</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.33520303298777199</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1.1070327874127499</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.14132173874700699</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1.4202076894511699</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>0.72772170691586002</v>
-      </c>
-      <c r="O56">
-        <v>2.9903138144903298</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3046,37 +3398,37 @@
         <v>3</v>
       </c>
       <c r="E57">
+        <v>2.5709188556956102</v>
+      </c>
+      <c r="F57">
         <v>17.605019696969499</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>15.9203143939394</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>22.7057265151502</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>8.2150393939392092</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>24.198065151514601</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>3.0572865947709702</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2.2902017611143699</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.83171479750647703</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>1.08042586849461</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>0.208484779231047</v>
-      </c>
-      <c r="O57">
-        <v>2.5709188556956102</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3092,6 +3444,36 @@
       <c r="D58">
         <v>3</v>
       </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58" t="s">
+        <v>105</v>
+      </c>
+      <c r="L58" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -3107,37 +3489,37 @@
         <v>2</v>
       </c>
       <c r="E59">
+        <v>2.95857816389797</v>
+      </c>
+      <c r="F59">
         <v>21.213857386363301</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>12.385555397727201</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>20.570401609846499</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>3.3428397727268599</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>21.631874431817501</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1.19039390874747</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>0.27570847629895101</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.49200638491849502</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.47292703538381098</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>0.25400631134145701</v>
-      </c>
-      <c r="O59">
-        <v>2.95857816389797</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3154,37 +3536,37 @@
         <v>2</v>
       </c>
       <c r="E60">
+        <v>2.56964078864066</v>
+      </c>
+      <c r="F60">
         <v>19.191472443181802</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>17.716570643938699</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>18.478068655303002</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>3.99640468749991</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>22.3341442234846</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>3.1002599489051201</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2.0591265071656899</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>0.42861630850666399</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.90226604308528202</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>0.58624480037363702</v>
-      </c>
-      <c r="O60">
-        <v>2.56964078864066</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3201,37 +3583,37 @@
         <v>3</v>
       </c>
       <c r="E61">
+        <v>2.8920405721521201</v>
+      </c>
+      <c r="F61">
         <v>16.644222821969699</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>15.6334774621207</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>21.2935553977272</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>4.53574895833325</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>23.107927178030099</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>0.224321414275655</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>0.80638467431300798</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>0.24101535938511401</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.84652445451565395</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0.35106443626249201</v>
-      </c>
-      <c r="O61">
-        <v>2.8920405721521201</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3247,6 +3629,36 @@
       <c r="D62">
         <v>3</v>
       </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L62" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" t="s">
+        <v>105</v>
+      </c>
+      <c r="O62" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -3262,37 +3674,37 @@
         <v>2</v>
       </c>
       <c r="E63">
+        <v>2.8114370332217198</v>
+      </c>
+      <c r="F63">
         <v>17.105446969696899</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>14.196566666666699</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>22.639409848484402</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>6.4506643939390402</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>23.727481818181801</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.48966007041135801</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>1.21347004896685</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>0.23892040300610601</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.48132849288962198</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0.37462760207824802</v>
-      </c>
-      <c r="O63">
-        <v>2.8114370332217198</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3308,6 +3720,36 @@
       <c r="D64">
         <v>3</v>
       </c>
+      <c r="E64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+      <c r="J64" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" t="s">
+        <v>105</v>
+      </c>
+      <c r="L64" t="s">
+        <v>105</v>
+      </c>
+      <c r="N64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -3323,37 +3765,37 @@
         <v>2</v>
       </c>
       <c r="E65">
+        <v>3.2862034294789</v>
+      </c>
+      <c r="F65">
         <v>21.440292613636199</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>13.8010958333335</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>23.2483995265145</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>3.7078033143934901</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>23.763864015151501</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1.57406666630473</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>0.213854850867538</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.27235978908652497</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1.3163121083721301</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>0.26963349860917502</v>
-      </c>
-      <c r="O65">
-        <v>3.2862034294789</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3370,37 +3812,37 @@
         <v>2</v>
       </c>
       <c r="E66">
+        <v>2.56893579921018</v>
+      </c>
+      <c r="F66">
         <v>16.8622334280298</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>13.844948200757599</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>21.294684943180702</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>6.8179982007568398</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>23.642611837120999</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.35675424178745302</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>2.9326733782016001</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>0.25933369779212001</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1.0717685413879401</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>0.28330952991673197</v>
-      </c>
-      <c r="O66">
-        <v>2.56893579921018</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3417,37 +3859,37 @@
         <v>3</v>
       </c>
       <c r="E67">
+        <v>3.2838045111168399</v>
+      </c>
+      <c r="F67">
         <v>17.4830022727268</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>13.062035606060199</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>22.8674977272726</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>3.3438378787877201</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>23.4529439393934</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>1.40218989150409</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.567292835754167</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>5.8655096555426799E-2</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>3.0063054311838</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>0.210411889439334</v>
-      </c>
-      <c r="O67">
-        <v>3.2838045111168399</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3464,37 +3906,37 @@
         <v>2</v>
       </c>
       <c r="E68">
+        <v>2.8354181018757298</v>
+      </c>
+      <c r="F68">
         <v>17.141705397727399</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>13.091755965909799</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>22.279723674242</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>5.9216718749993502</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>24.1133613636365</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>0.38952321397649298</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>2.13134671330819</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.18513874370574401</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>0.411605877851208</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>0.231887941475725</v>
-      </c>
-      <c r="O68">
-        <v>2.8354181018757298</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3511,37 +3953,37 @@
         <v>3</v>
       </c>
       <c r="E69">
+        <v>3.3679803523908398</v>
+      </c>
+      <c r="F69">
         <v>16.9008238636365</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>14.201524621213199</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>22.618420454545099</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>2.50047916666579</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>22.939681818181999</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.22893966024565801</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>1.8985913538466901</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>0.59160091408167903</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>1.86759810171115</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>0.57767584819142304</v>
-      </c>
-      <c r="O69">
-        <v>3.3679803523908398</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3557,6 +3999,36 @@
       <c r="D70">
         <v>3</v>
       </c>
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+      <c r="K70" t="s">
+        <v>105</v>
+      </c>
+      <c r="L70" t="s">
+        <v>105</v>
+      </c>
+      <c r="N70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O70" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -3572,37 +4044,37 @@
         <v>2</v>
       </c>
       <c r="E71">
+        <v>2.7531007221650099</v>
+      </c>
+      <c r="F71">
         <v>18.369784611742499</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>13.0556173295458</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>21.1520520359846</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>5.3751609374996097</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>23.241905918560501</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>2.5842134879532899</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0.86722811042117098</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>0.21784043174473899</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.65297749250435699</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>0.18919081486936201</v>
-      </c>
-      <c r="O71">
-        <v>2.7531007221650099</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3619,37 +4091,37 @@
         <v>3</v>
       </c>
       <c r="E72">
+        <v>3.31248390419778</v>
+      </c>
+      <c r="F72">
         <v>16.755549242424198</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>14.390583333333399</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>23.715642045454</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>3.9895056818176799</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>23.537462121212101</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>0.49739788114641298</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>1.62823771214142</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.316940733835544</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>1.09254725015688</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>0.43026527327964897</v>
-      </c>
-      <c r="O72">
-        <v>3.31248390419778</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3666,37 +4138,37 @@
         <v>2</v>
       </c>
       <c r="E73">
+        <v>3.2697141184329102</v>
+      </c>
+      <c r="F73">
         <v>21.287958285984601</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>13.672001562500499</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>21.977558806817601</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>2.5533771306812501</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>22.478193939393702</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1.00239857357982</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>0.16205252015348801</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.174434034007838</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>0.70531608700229298</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>0.20695601457002399</v>
-      </c>
-      <c r="O73">
-        <v>3.2697141184329102</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3712,6 +4184,36 @@
       <c r="D74">
         <v>3</v>
       </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+      <c r="K74" t="s">
+        <v>105</v>
+      </c>
+      <c r="L74" t="s">
+        <v>105</v>
+      </c>
+      <c r="N74" t="s">
+        <v>105</v>
+      </c>
+      <c r="O74" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -3727,37 +4229,37 @@
         <v>2</v>
       </c>
       <c r="E75">
+        <v>2.9203601704008899</v>
+      </c>
+      <c r="F75">
         <v>16.483809090909201</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>13.972236458334001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>24.006097916666601</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>7.0483551136363403</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>23.8508546401514</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0.88022308540654703</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>1.60411937795561</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>0.413041236890965</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1.0564167567924301</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>0.38921449497492</v>
-      </c>
-      <c r="O75">
-        <v>2.9203601704008899</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3774,37 +4276,37 @@
         <v>3</v>
       </c>
       <c r="E76">
+        <v>2.6204776831702898</v>
+      </c>
+      <c r="F76">
         <v>16.3557412878788</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>17.258291193181599</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>21.271601893940002</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>6.4310294507577703</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>21.922499999999999</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1.39381775956101</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1.10041580242572</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>0.37100579569880299</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>4.7283585590517201E-2</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>0.189503957742306</v>
-      </c>
-      <c r="O76">
-        <v>2.6204776831702898</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -3821,37 +4323,37 @@
         <v>2</v>
       </c>
       <c r="E77">
+        <v>3.2509341175505102</v>
+      </c>
+      <c r="F77">
         <v>22.912578055964602</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>11.5150522827703</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>22.765211585664701</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>3.4736167157580899</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>22.701163475699602</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0.47293214358953101</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0.60937771816450603</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>0.38446982159461401</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>0.19778519946470599</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>0.20138033262342001</v>
-      </c>
-      <c r="O77">
-        <v>3.2509341175505102</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -3867,6 +4369,36 @@
       <c r="D78">
         <v>2</v>
       </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+      <c r="K78" t="s">
+        <v>105</v>
+      </c>
+      <c r="L78" t="s">
+        <v>105</v>
+      </c>
+      <c r="N78" t="s">
+        <v>105</v>
+      </c>
+      <c r="O78" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -3881,6 +4413,80 @@
       <c r="D79">
         <v>3</v>
       </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+      <c r="K79" t="s">
+        <v>105</v>
+      </c>
+      <c r="L79" t="s">
+        <v>105</v>
+      </c>
+      <c r="N79" t="s">
+        <v>105</v>
+      </c>
+      <c r="O79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80">
+        <v>1984</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+      <c r="K80" t="s">
+        <v>105</v>
+      </c>
+      <c r="L80" t="s">
+        <v>105</v>
+      </c>
+      <c r="N80" t="s">
+        <v>105</v>
+      </c>
+      <c r="O80" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -3896,37 +4502,81 @@
         <v>2</v>
       </c>
       <c r="E81">
+        <v>2.6796438535496301</v>
+      </c>
+      <c r="F81">
         <v>16.1410369318181</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>13.7737208333333</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>21.920652367423799</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>6.6623667613633799</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>22.983413257575801</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>0.15340158443868199</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>0.16879313445628599</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>0.47806076502066802</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>1.2976449366484499</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>0.21300084491820301</v>
       </c>
-      <c r="O81">
-        <v>2.6796438535496301</v>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82">
+        <v>1983</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s">
+        <v>105</v>
+      </c>
+      <c r="K82" t="s">
+        <v>105</v>
+      </c>
+      <c r="L82" t="s">
+        <v>105</v>
+      </c>
+      <c r="N82" t="s">
+        <v>105</v>
+      </c>
+      <c r="O82" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -3943,139 +4593,268 @@
         <v>2</v>
       </c>
       <c r="E83">
+        <v>2.8043493808481301</v>
+      </c>
+      <c r="F83">
         <v>16.350245454545401</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>18.216407291667</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>20.094939583333201</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>3.9562329545453898</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>20.971898200757401</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>1.56279730497795</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>1.64121831004688</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>1.0364123851645399</v>
       </c>
-      <c r="M83" t="s">
-        <v>105</v>
-      </c>
-      <c r="N83">
+      <c r="N83" t="s">
+        <v>105</v>
+      </c>
+      <c r="O83">
         <v>0.52146386072435602</v>
       </c>
-      <c r="O83">
-        <v>2.8043493808481301</v>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84">
+        <v>1983</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+      <c r="J84" t="s">
+        <v>105</v>
+      </c>
+      <c r="K84" t="s">
+        <v>105</v>
+      </c>
+      <c r="L84" t="s">
+        <v>105</v>
+      </c>
+      <c r="N84" t="s">
+        <v>105</v>
+      </c>
+      <c r="O84" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85">
+        <v>1983</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" t="s">
+        <v>105</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
+      <c r="J85" t="s">
+        <v>105</v>
+      </c>
+      <c r="K85" t="s">
+        <v>105</v>
+      </c>
+      <c r="L85" t="s">
+        <v>105</v>
+      </c>
+      <c r="N85" t="s">
+        <v>105</v>
+      </c>
+      <c r="O85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>57</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>1980</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>2</v>
       </c>
-      <c r="E85">
+      <c r="E86">
+        <v>3.3145752854322601</v>
+      </c>
+      <c r="F86">
         <v>14.434212121212401</v>
       </c>
-      <c r="F85">
+      <c r="G86">
         <v>16.425354166667699</v>
       </c>
-      <c r="G85">
+      <c r="H86">
         <v>23.144208333333498</v>
       </c>
-      <c r="H85">
+      <c r="I86">
         <v>3.4033068181817701</v>
       </c>
-      <c r="I85">
+      <c r="J86">
         <v>22.953111742424301</v>
       </c>
-      <c r="J85">
+      <c r="K86">
         <v>2.2163646329392201</v>
       </c>
-      <c r="K85">
+      <c r="L86">
         <v>6.0776554430949004</v>
       </c>
-      <c r="L85">
+      <c r="M86">
         <v>0.39317478730504501</v>
       </c>
-      <c r="M85">
+      <c r="N86">
         <v>1.0200883305381001</v>
       </c>
-      <c r="N85">
+      <c r="O86">
         <v>0.17534264289265</v>
       </c>
-      <c r="O85">
-        <v>3.3145752854322601</v>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87">
+        <v>1980</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>105</v>
+      </c>
+      <c r="J87" t="s">
+        <v>105</v>
+      </c>
+      <c r="K87" t="s">
+        <v>105</v>
+      </c>
+      <c r="L87" t="s">
+        <v>105</v>
+      </c>
+      <c r="N87" t="s">
+        <v>105</v>
+      </c>
+      <c r="O87" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>1980</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88">
-        <v>13.6036013257576</v>
-      </c>
-      <c r="F88">
-        <v>15.286704166666601</v>
-      </c>
-      <c r="G88">
-        <v>19.179753503787399</v>
-      </c>
-      <c r="H88">
-        <v>5.02473579545455</v>
-      </c>
-      <c r="I88">
-        <v>20.640766287878801</v>
-      </c>
-      <c r="J88">
-        <v>1.14399163687367</v>
-      </c>
-      <c r="K88">
-        <v>1.7068919626735499</v>
-      </c>
-      <c r="L88">
-        <v>1.57194171027636</v>
-      </c>
-      <c r="M88" t="s">
-        <v>105</v>
-      </c>
-      <c r="N88">
-        <v>0.27780095626094398</v>
-      </c>
-      <c r="O88">
-        <v>2.5233736130783102</v>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>105</v>
+      </c>
+      <c r="J88" t="s">
+        <v>105</v>
+      </c>
+      <c r="K88" t="s">
+        <v>105</v>
+      </c>
+      <c r="L88" t="s">
+        <v>105</v>
+      </c>
+      <c r="N88" t="s">
+        <v>105</v>
+      </c>
+      <c r="O88" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B89">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -4083,654 +4862,965 @@
       <c r="D89">
         <v>3</v>
       </c>
-      <c r="E89">
-        <v>23.839729545455398</v>
-      </c>
-      <c r="F89">
-        <v>11.900452367423901</v>
-      </c>
-      <c r="G89">
-        <v>22.056613636364901</v>
-      </c>
-      <c r="H89">
-        <v>1.4121243371226599</v>
-      </c>
-      <c r="I89">
-        <v>21.0544213068187</v>
-      </c>
-      <c r="J89">
-        <v>0.64123198752359101</v>
-      </c>
-      <c r="K89">
-        <v>0.382577647455418</v>
-      </c>
-      <c r="L89">
-        <v>0.16931944020262499</v>
-      </c>
-      <c r="M89">
-        <v>0.106947208575682</v>
-      </c>
-      <c r="N89">
-        <v>0.227065475780171</v>
-      </c>
-      <c r="O89">
-        <v>3.4425622236887001</v>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" t="s">
+        <v>105</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>105</v>
+      </c>
+      <c r="J89" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L89" t="s">
+        <v>105</v>
+      </c>
+      <c r="N89" t="s">
+        <v>105</v>
+      </c>
+      <c r="O89" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B90">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" t="s">
+        <v>105</v>
+      </c>
+      <c r="J90" t="s">
+        <v>105</v>
+      </c>
+      <c r="K90" t="s">
+        <v>105</v>
+      </c>
+      <c r="L90" t="s">
+        <v>105</v>
+      </c>
+      <c r="N90" t="s">
+        <v>105</v>
+      </c>
+      <c r="O90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91">
+        <v>1980</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
         <v>2</v>
       </c>
-      <c r="E90">
-        <v>17.010133238636001</v>
-      </c>
-      <c r="F90">
-        <v>16.6862124053029</v>
-      </c>
-      <c r="G90">
-        <v>22.260772017045401</v>
-      </c>
-      <c r="H90">
-        <v>7.9244247159092298</v>
-      </c>
-      <c r="I90">
-        <v>22.212338446969198</v>
-      </c>
-      <c r="J90">
-        <v>0.62817530378935604</v>
-      </c>
-      <c r="K90">
-        <v>2.5758409648637199</v>
-      </c>
-      <c r="L90">
-        <v>1.9635899310029199</v>
-      </c>
-      <c r="M90">
-        <v>3.9939572586544099</v>
-      </c>
-      <c r="N90">
-        <v>0.11428364399867599</v>
-      </c>
-      <c r="O90">
-        <v>2.5490576913790601</v>
+      <c r="E91">
+        <v>2.5233736130783102</v>
+      </c>
+      <c r="F91">
+        <v>13.6036013257576</v>
+      </c>
+      <c r="G91">
+        <v>15.286704166666601</v>
+      </c>
+      <c r="H91">
+        <v>19.179753503787399</v>
+      </c>
+      <c r="I91">
+        <v>5.02473579545455</v>
+      </c>
+      <c r="J91">
+        <v>20.640766287878801</v>
+      </c>
+      <c r="K91">
+        <v>1.14399163687367</v>
+      </c>
+      <c r="L91">
+        <v>1.7068919626735499</v>
+      </c>
+      <c r="M91">
+        <v>1.57194171027636</v>
+      </c>
+      <c r="N91" t="s">
+        <v>105</v>
+      </c>
+      <c r="O91">
+        <v>0.27780095626094398</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>1977</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>19.119294696970499</v>
+        <v>3.4425622236887001</v>
       </c>
       <c r="F92">
-        <v>14.977582481060301</v>
+        <v>23.839729545455398</v>
       </c>
       <c r="G92">
-        <v>21.983992424243301</v>
+        <v>11.900452367423901</v>
       </c>
       <c r="H92">
-        <v>4.4899165719703298</v>
+        <v>22.056613636364901</v>
       </c>
       <c r="I92">
-        <v>21.1229589962125</v>
+        <v>1.4121243371226599</v>
       </c>
       <c r="J92">
-        <v>1.0091443291100299</v>
+        <v>21.0544213068187</v>
       </c>
       <c r="K92">
-        <v>2.94327305489159</v>
+        <v>0.64123198752359101</v>
       </c>
       <c r="L92">
-        <v>0.37456665480418899</v>
+        <v>0.382577647455418</v>
       </c>
       <c r="M92">
-        <v>0.240267840060753</v>
+        <v>0.16931944020262499</v>
       </c>
       <c r="N92">
-        <v>0.12109402920334</v>
+        <v>0.106947208575682</v>
       </c>
       <c r="O92">
-        <v>2.99632802440127</v>
+        <v>0.227065475780171</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B93">
         <v>1977</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>10.602315151515301</v>
+        <v>2.5490576913790601</v>
       </c>
       <c r="F93">
-        <v>15.309191666667701</v>
+        <v>17.010133238636001</v>
       </c>
       <c r="G93">
-        <v>23.102716666666701</v>
+        <v>16.6862124053029</v>
       </c>
       <c r="H93">
-        <v>4.7944772727272102</v>
+        <v>22.260772017045401</v>
       </c>
       <c r="I93">
-        <v>23.543155303030399</v>
+        <v>7.9244247159092298</v>
       </c>
       <c r="J93">
-        <v>5.4799588464576301</v>
+        <v>22.212338446969198</v>
       </c>
       <c r="K93">
-        <v>1.46066912983681</v>
+        <v>0.62817530378935604</v>
       </c>
       <c r="L93">
-        <v>0.169281277382928</v>
+        <v>2.5758409648637199</v>
       </c>
       <c r="M93">
-        <v>0.59609864940909796</v>
+        <v>1.9635899310029199</v>
       </c>
       <c r="N93">
-        <v>0.39993809865716001</v>
+        <v>3.9939572586544099</v>
       </c>
       <c r="O93">
-        <v>3.1116486393681999</v>
+        <v>0.11428364399867599</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>1977</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94">
-        <v>20.866051515151899</v>
-      </c>
-      <c r="F94">
-        <v>12.163309375001701</v>
-      </c>
-      <c r="G94">
-        <v>21.491493750000199</v>
-      </c>
-      <c r="H94">
-        <v>1.39709564393938</v>
-      </c>
-      <c r="I94">
-        <v>21.211079071970101</v>
-      </c>
-      <c r="J94">
-        <v>0.62296134037165696</v>
-      </c>
-      <c r="K94">
-        <v>0.202853753725</v>
-      </c>
-      <c r="L94">
-        <v>0.210545330722545</v>
-      </c>
-      <c r="M94">
-        <v>0.34310232568125199</v>
-      </c>
-      <c r="N94">
-        <v>0.180046974857133</v>
-      </c>
-      <c r="O94">
-        <v>3.3646456240879301</v>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" t="s">
+        <v>105</v>
+      </c>
+      <c r="I94" t="s">
+        <v>105</v>
+      </c>
+      <c r="J94" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94" t="s">
+        <v>105</v>
+      </c>
+      <c r="L94" t="s">
+        <v>105</v>
+      </c>
+      <c r="N94" t="s">
+        <v>105</v>
+      </c>
+      <c r="O94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95">
+        <v>1977</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2.99632802440127</v>
+      </c>
+      <c r="F95">
+        <v>19.119294696970499</v>
+      </c>
+      <c r="G95">
+        <v>14.977582481060301</v>
+      </c>
+      <c r="H95">
+        <v>21.983992424243301</v>
+      </c>
+      <c r="I95">
+        <v>4.4899165719703298</v>
+      </c>
+      <c r="J95">
+        <v>21.1229589962125</v>
+      </c>
+      <c r="K95">
+        <v>1.0091443291100299</v>
+      </c>
+      <c r="L95">
+        <v>2.94327305489159</v>
+      </c>
+      <c r="M95">
+        <v>0.37456665480418899</v>
+      </c>
+      <c r="N95">
+        <v>0.240267840060753</v>
+      </c>
+      <c r="O95">
+        <v>0.12109402920334</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B96">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96">
-        <v>20.105557812499999</v>
+        <v>3.1116486393681999</v>
       </c>
       <c r="F96">
-        <v>14.569544507575401</v>
+        <v>10.602315151515301</v>
       </c>
       <c r="G96">
-        <v>23.370273816288201</v>
+        <v>15.309191666667701</v>
       </c>
       <c r="H96">
-        <v>3.9781295928034499</v>
+        <v>23.102716666666701</v>
       </c>
       <c r="I96">
-        <v>23.785977888257499</v>
+        <v>4.7944772727272102</v>
       </c>
       <c r="J96">
-        <v>0.338055588348393</v>
+        <v>23.543155303030399</v>
       </c>
       <c r="K96">
-        <v>0.66578365429605002</v>
+        <v>5.4799588464576301</v>
       </c>
       <c r="L96">
-        <v>0.168366024114909</v>
+        <v>1.46066912983681</v>
       </c>
       <c r="M96">
-        <v>0.41857827922695801</v>
+        <v>0.169281277382928</v>
       </c>
       <c r="N96">
-        <v>0.101803284088977</v>
+        <v>0.59609864940909796</v>
       </c>
       <c r="O96">
-        <v>3.2651762356210701</v>
+        <v>0.39993809865716001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97">
+        <v>1977</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>3.3646456240879301</v>
+      </c>
+      <c r="F97">
+        <v>20.866051515151899</v>
+      </c>
+      <c r="G97">
+        <v>12.163309375001701</v>
+      </c>
+      <c r="H97">
+        <v>21.491493750000199</v>
+      </c>
+      <c r="I97">
+        <v>1.39709564393938</v>
+      </c>
+      <c r="J97">
+        <v>21.211079071970101</v>
+      </c>
+      <c r="K97">
+        <v>0.62296134037165696</v>
+      </c>
+      <c r="L97">
+        <v>0.202853753725</v>
+      </c>
+      <c r="M97">
+        <v>0.210545330722545</v>
+      </c>
+      <c r="N97">
+        <v>0.34310232568125199</v>
+      </c>
+      <c r="O97">
+        <v>0.180046974857133</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>1974</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" t="s">
+        <v>105</v>
+      </c>
+      <c r="H98" t="s">
+        <v>105</v>
+      </c>
+      <c r="I98" t="s">
+        <v>105</v>
+      </c>
+      <c r="J98" t="s">
+        <v>105</v>
+      </c>
+      <c r="K98" t="s">
+        <v>105</v>
+      </c>
+      <c r="L98" t="s">
+        <v>105</v>
+      </c>
+      <c r="N98" t="s">
+        <v>105</v>
+      </c>
+      <c r="O98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>1974</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99">
         <v>2</v>
       </c>
-      <c r="E98">
-        <v>15.1998685606059</v>
-      </c>
-      <c r="F98">
-        <v>13.4555362689399</v>
-      </c>
-      <c r="G98">
-        <v>20.387598674242099</v>
-      </c>
-      <c r="H98">
-        <v>3.5647580492419002</v>
-      </c>
-      <c r="I98">
-        <v>21.929078219697001</v>
-      </c>
-      <c r="J98">
-        <v>1.4725239045465</v>
-      </c>
-      <c r="K98">
-        <v>1.99204716730057</v>
-      </c>
-      <c r="L98">
-        <v>0.83922815781523896</v>
-      </c>
-      <c r="M98">
-        <v>0.80946712140888699</v>
-      </c>
-      <c r="N98">
-        <v>0.25376456268412501</v>
-      </c>
-      <c r="O98">
-        <v>2.90125221317283</v>
+      <c r="E99">
+        <v>3.2651762356210701</v>
+      </c>
+      <c r="F99">
+        <v>20.105557812499999</v>
+      </c>
+      <c r="G99">
+        <v>14.569544507575401</v>
+      </c>
+      <c r="H99">
+        <v>23.370273816288201</v>
+      </c>
+      <c r="I99">
+        <v>3.9781295928034499</v>
+      </c>
+      <c r="J99">
+        <v>23.785977888257499</v>
+      </c>
+      <c r="K99">
+        <v>0.338055588348393</v>
+      </c>
+      <c r="L99">
+        <v>0.66578365429605002</v>
+      </c>
+      <c r="M99">
+        <v>0.168366024114909</v>
+      </c>
+      <c r="N99">
+        <v>0.41857827922695801</v>
+      </c>
+      <c r="O99">
+        <v>0.101803284088977</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B100">
         <v>1974</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>19.1969893939395</v>
-      </c>
-      <c r="F100">
-        <v>14.3823853693182</v>
-      </c>
-      <c r="G100">
-        <v>23.1150002840909</v>
-      </c>
-      <c r="H100">
-        <v>4.4168430397725897</v>
-      </c>
-      <c r="I100">
-        <v>23.162785890151401</v>
-      </c>
-      <c r="J100">
-        <v>1.13277348315364</v>
-      </c>
-      <c r="K100">
-        <v>1.2221394325366099</v>
-      </c>
-      <c r="L100">
-        <v>0.65012487244519102</v>
-      </c>
-      <c r="M100">
-        <v>0.512084331590833</v>
-      </c>
-      <c r="N100">
-        <v>0.19151932467070501</v>
-      </c>
-      <c r="O100">
-        <v>3.1668777966456498</v>
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" t="s">
+        <v>105</v>
+      </c>
+      <c r="I100" t="s">
+        <v>105</v>
+      </c>
+      <c r="J100" t="s">
+        <v>105</v>
+      </c>
+      <c r="K100" t="s">
+        <v>105</v>
+      </c>
+      <c r="L100" t="s">
+        <v>105</v>
+      </c>
+      <c r="N100" t="s">
+        <v>105</v>
+      </c>
+      <c r="O100" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B101">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101">
-        <v>19.168253787878701</v>
+        <v>2.90125221317283</v>
       </c>
       <c r="F101">
-        <v>13.015369696968101</v>
+        <v>15.1998685606059</v>
       </c>
       <c r="G101">
-        <v>22.5764886363621</v>
+        <v>13.4555362689399</v>
       </c>
       <c r="H101">
-        <v>4.19306969696843</v>
+        <v>20.387598674242099</v>
       </c>
       <c r="I101">
-        <v>22.7242575757565</v>
+        <v>3.5647580492419002</v>
       </c>
       <c r="J101">
-        <v>0.61919574919366505</v>
+        <v>21.929078219697001</v>
       </c>
       <c r="K101">
-        <v>0.18319833692621801</v>
+        <v>1.4725239045465</v>
       </c>
       <c r="L101">
-        <v>0.30152919904383702</v>
+        <v>1.99204716730057</v>
       </c>
       <c r="M101">
-        <v>0.88090461456198099</v>
+        <v>0.83922815781523896</v>
       </c>
       <c r="N101">
-        <v>0.443009630242446</v>
+        <v>0.80946712140888699</v>
       </c>
       <c r="O101">
-        <v>3.1222973001973999</v>
+        <v>0.25376456268412501</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="B102">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
-      <c r="E102">
-        <v>19.251461647727002</v>
-      </c>
-      <c r="F102">
-        <v>16.663256818180301</v>
-      </c>
-      <c r="G102">
-        <v>23.185312973483299</v>
-      </c>
-      <c r="H102">
-        <v>3.8655859848471001</v>
-      </c>
-      <c r="I102">
-        <v>22.734808712119701</v>
-      </c>
-      <c r="J102">
-        <v>0.165242817675713</v>
-      </c>
-      <c r="K102">
-        <v>0.46501670991614402</v>
-      </c>
-      <c r="L102">
-        <v>0.13530537647254801</v>
-      </c>
-      <c r="M102">
-        <v>0.33607319644046502</v>
-      </c>
-      <c r="N102">
-        <v>0.384693182923602</v>
-      </c>
-      <c r="O102">
-        <v>3.2549188369173101</v>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+      <c r="G102" t="s">
+        <v>105</v>
+      </c>
+      <c r="H102" t="s">
+        <v>105</v>
+      </c>
+      <c r="I102" t="s">
+        <v>105</v>
+      </c>
+      <c r="J102" t="s">
+        <v>105</v>
+      </c>
+      <c r="K102" t="s">
+        <v>105</v>
+      </c>
+      <c r="L102" t="s">
+        <v>105</v>
+      </c>
+      <c r="N102" t="s">
+        <v>105</v>
+      </c>
+      <c r="O102" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B103">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103">
-        <v>23.311657670454601</v>
+        <v>3.1668777966456498</v>
       </c>
       <c r="F103">
-        <v>14.2255219696955</v>
+        <v>19.1969893939395</v>
       </c>
       <c r="G103">
-        <v>21.499787405301401</v>
+        <v>14.3823853693182</v>
       </c>
       <c r="H103">
-        <v>3.25530946969609</v>
+        <v>23.1150002840909</v>
       </c>
       <c r="I103">
-        <v>22.4476382575745</v>
+        <v>4.4168430397725897</v>
       </c>
       <c r="J103">
-        <v>0.17711351133014699</v>
+        <v>23.162785890151401</v>
       </c>
       <c r="K103">
-        <v>0.157922913351915</v>
+        <v>1.13277348315364</v>
       </c>
       <c r="L103">
-        <v>5.5154439820433998E-2</v>
+        <v>1.2221394325366099</v>
       </c>
       <c r="M103">
-        <v>5.6864663513921103E-2</v>
+        <v>0.65012487244519102</v>
       </c>
       <c r="N103">
-        <v>0.123371545217446</v>
+        <v>0.512084331590833</v>
       </c>
       <c r="O103">
-        <v>3.1026172713322002</v>
+        <v>0.19151932467070501</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B104">
         <v>1971</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>22.289532196969699</v>
+        <v>3.1222973001973999</v>
       </c>
       <c r="F104">
-        <v>13.740742424241001</v>
+        <v>19.168253787878701</v>
       </c>
       <c r="G104">
-        <v>21.991611742422698</v>
+        <v>13.015369696968101</v>
       </c>
       <c r="H104">
-        <v>2.8558257575747601</v>
+        <v>22.5764886363621</v>
       </c>
       <c r="I104">
-        <v>23.1675227272715</v>
+        <v>4.19306969696843</v>
       </c>
       <c r="J104">
-        <v>0.89714611089072704</v>
+        <v>22.7242575757565</v>
       </c>
       <c r="K104">
-        <v>0.33071583685017802</v>
+        <v>0.61919574919366505</v>
       </c>
       <c r="L104">
-        <v>9.9151045610143901E-2</v>
+        <v>0.18319833692621801</v>
       </c>
       <c r="M104">
-        <v>0.43413150783221799</v>
+        <v>0.30152919904383702</v>
       </c>
       <c r="N104">
-        <v>9.5545356052903402E-2</v>
+        <v>0.88090461456198099</v>
       </c>
       <c r="O104">
-        <v>3.2288648703750602</v>
+        <v>0.443009630242446</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <v>1971</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>24.341136363637201</v>
+        <v>3.2549188369173101</v>
       </c>
       <c r="F105">
-        <v>13.2007897727269</v>
+        <v>19.251461647727002</v>
       </c>
       <c r="G105">
-        <v>21.649242424243599</v>
+        <v>16.663256818180301</v>
       </c>
       <c r="H105">
-        <v>6.6801988636374201</v>
+        <v>23.185312973483299</v>
       </c>
       <c r="I105">
-        <v>20.493107954545899</v>
+        <v>3.8655859848471001</v>
       </c>
       <c r="J105">
-        <v>0.36352663151875803</v>
+        <v>22.734808712119701</v>
       </c>
       <c r="K105">
-        <v>8.9132593959779294E-2</v>
+        <v>0.165242817675713</v>
       </c>
       <c r="L105">
-        <v>0.38157454505872002</v>
+        <v>0.46501670991614402</v>
       </c>
       <c r="M105">
-        <v>0.30075698045646199</v>
+        <v>0.13530537647254801</v>
       </c>
       <c r="N105">
-        <v>0.278836851851334</v>
+        <v>0.33607319644046502</v>
       </c>
       <c r="O105">
-        <v>2.6386747252983298</v>
+        <v>0.384693182923602</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B106">
         <v>1971</v>
       </c>
       <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>3.1026172713322002</v>
+      </c>
+      <c r="F106">
+        <v>23.311657670454601</v>
+      </c>
+      <c r="G106">
+        <v>14.2255219696955</v>
+      </c>
+      <c r="H106">
+        <v>21.499787405301401</v>
+      </c>
+      <c r="I106">
+        <v>3.25530946969609</v>
+      </c>
+      <c r="J106">
+        <v>22.4476382575745</v>
+      </c>
+      <c r="K106">
+        <v>0.17711351133014699</v>
+      </c>
+      <c r="L106">
+        <v>0.157922913351915</v>
+      </c>
+      <c r="M106">
+        <v>5.5154439820433998E-2</v>
+      </c>
+      <c r="N106">
+        <v>5.6864663513921103E-2</v>
+      </c>
+      <c r="O106">
+        <v>0.123371545217446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107">
+        <v>1971</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>3.2288648703750602</v>
+      </c>
+      <c r="F107">
+        <v>22.289532196969699</v>
+      </c>
+      <c r="G107">
+        <v>13.740742424241001</v>
+      </c>
+      <c r="H107">
+        <v>21.991611742422698</v>
+      </c>
+      <c r="I107">
+        <v>2.8558257575747601</v>
+      </c>
+      <c r="J107">
+        <v>23.1675227272715</v>
+      </c>
+      <c r="K107">
+        <v>0.89714611089072704</v>
+      </c>
+      <c r="L107">
+        <v>0.33071583685017802</v>
+      </c>
+      <c r="M107">
+        <v>9.9151045610143901E-2</v>
+      </c>
+      <c r="N107">
+        <v>0.43413150783221799</v>
+      </c>
+      <c r="O107">
+        <v>9.5545356052903402E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108">
+        <v>1971</v>
+      </c>
+      <c r="C108" t="s">
         <v>20</v>
       </c>
-      <c r="D106">
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>2.6386747252983298</v>
+      </c>
+      <c r="F108">
+        <v>24.341136363637201</v>
+      </c>
+      <c r="G108">
+        <v>13.2007897727269</v>
+      </c>
+      <c r="H108">
+        <v>21.649242424243599</v>
+      </c>
+      <c r="I108">
+        <v>6.6801988636374201</v>
+      </c>
+      <c r="J108">
+        <v>20.493107954545899</v>
+      </c>
+      <c r="K108">
+        <v>0.36352663151875803</v>
+      </c>
+      <c r="L108">
+        <v>8.9132593959779294E-2</v>
+      </c>
+      <c r="M108">
+        <v>0.38157454505872002</v>
+      </c>
+      <c r="N108">
+        <v>0.30075698045646199</v>
+      </c>
+      <c r="O108">
+        <v>0.278836851851334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109">
+        <v>1971</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109">
         <v>3</v>
       </c>
-      <c r="E106">
+      <c r="E109">
+        <v>3.4028020645549399</v>
+      </c>
+      <c r="F109">
         <v>20.361012121212902</v>
       </c>
-      <c r="F106">
+      <c r="G109">
         <v>12.499350757575399</v>
       </c>
-      <c r="G106">
+      <c r="H109">
         <v>22.8166363636374</v>
       </c>
-      <c r="H106">
+      <c r="I109">
         <v>2.45285378787952</v>
       </c>
-      <c r="I106">
+      <c r="J109">
         <v>21.685690151515601</v>
       </c>
-      <c r="J106">
+      <c r="K109">
         <v>0.42262637934742497</v>
       </c>
-      <c r="K106">
+      <c r="L109">
         <v>1.4435868166624399</v>
       </c>
-      <c r="L106">
+      <c r="M109">
         <v>0.44078223866384197</v>
       </c>
-      <c r="M106">
+      <c r="N109">
         <v>0.83347852522584498</v>
       </c>
-      <c r="N106">
+      <c r="O109">
         <v>0.60727742788618</v>
-      </c>
-      <c r="O106">
-        <v>3.4028020645549399</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B110">
         <v>1968</v>
@@ -4739,92 +5829,89 @@
         <v>17</v>
       </c>
       <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>21.090823863635201</v>
-      </c>
-      <c r="F110">
-        <v>14.515842803028599</v>
-      </c>
-      <c r="G110">
-        <v>22.872842803029499</v>
-      </c>
-      <c r="H110">
-        <v>1.8559450757565801</v>
-      </c>
-      <c r="I110">
-        <v>23.2966515151506</v>
-      </c>
-      <c r="J110">
-        <v>0.810167168755071</v>
-      </c>
-      <c r="K110">
-        <v>0.93018570074579698</v>
-      </c>
-      <c r="L110">
-        <v>0.11876957878194901</v>
-      </c>
-      <c r="M110">
-        <v>0.123595240530915</v>
-      </c>
-      <c r="N110">
-        <v>8.3055476031618294E-2</v>
-      </c>
-      <c r="O110">
-        <v>3.49531129281486</v>
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" t="s">
+        <v>105</v>
+      </c>
+      <c r="I110" t="s">
+        <v>105</v>
+      </c>
+      <c r="J110" t="s">
+        <v>105</v>
+      </c>
+      <c r="K110" t="s">
+        <v>105</v>
+      </c>
+      <c r="L110" t="s">
+        <v>105</v>
+      </c>
+      <c r="N110" t="s">
+        <v>105</v>
+      </c>
+      <c r="O110" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111">
         <v>1968</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>23.742122253786299</v>
+        <v>3.49531129281486</v>
       </c>
       <c r="F111">
-        <v>12.1456277462103</v>
+        <v>21.090823863635201</v>
       </c>
       <c r="G111">
-        <v>22.2703444128779</v>
+        <v>14.515842803028599</v>
       </c>
       <c r="H111">
-        <v>3.6298540719687602</v>
+        <v>22.872842803029499</v>
       </c>
       <c r="I111">
-        <v>22.7888356060595</v>
+        <v>1.8559450757565801</v>
       </c>
       <c r="J111">
-        <v>1.22025539099981</v>
+        <v>23.2966515151506</v>
       </c>
       <c r="K111">
-        <v>1.1863717925683099</v>
+        <v>0.810167168755071</v>
       </c>
       <c r="L111">
-        <v>0.18163058100895299</v>
+        <v>0.93018570074579698</v>
       </c>
       <c r="M111">
-        <v>0.38508063827022998</v>
+        <v>0.11876957878194901</v>
       </c>
       <c r="N111">
-        <v>0.35904931075438601</v>
+        <v>0.123595240530915</v>
       </c>
       <c r="O111">
-        <v>3.1587096800154599</v>
+        <v>8.3055476031618294E-2</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B112">
         <v>1968</v>
@@ -4833,48 +5920,189 @@
         <v>20</v>
       </c>
       <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>3.1587096800154599</v>
+      </c>
+      <c r="F112">
+        <v>23.742122253786299</v>
+      </c>
+      <c r="G112">
+        <v>12.1456277462103</v>
+      </c>
+      <c r="H112">
+        <v>22.2703444128779</v>
+      </c>
+      <c r="I112">
+        <v>3.6298540719687602</v>
+      </c>
+      <c r="J112">
+        <v>22.7888356060595</v>
+      </c>
+      <c r="K112">
+        <v>1.22025539099981</v>
+      </c>
+      <c r="L112">
+        <v>1.1863717925683099</v>
+      </c>
+      <c r="M112">
+        <v>0.18163058100895299</v>
+      </c>
+      <c r="N112">
+        <v>0.38508063827022998</v>
+      </c>
+      <c r="O112">
+        <v>0.35904931075438601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113">
+        <v>1968</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
         <v>2</v>
       </c>
-      <c r="E112">
+      <c r="E113">
+        <v>3.2453000257532798</v>
+      </c>
+      <c r="F113">
         <v>23.397690814394199</v>
       </c>
-      <c r="F112">
+      <c r="G113">
         <v>10.4266525568185</v>
       </c>
-      <c r="G112">
+      <c r="H113">
         <v>22.5968286931816</v>
       </c>
-      <c r="H112">
+      <c r="I113">
         <v>3.3450105113634399</v>
       </c>
-      <c r="I112">
+      <c r="J113">
         <v>22.598010227273001</v>
       </c>
-      <c r="J112">
+      <c r="K113">
         <v>0.70949151256259602</v>
       </c>
-      <c r="K112">
+      <c r="L113">
         <v>4.5927007151201502E-2</v>
       </c>
-      <c r="L112">
+      <c r="M113">
         <v>0.32182270322074902</v>
       </c>
-      <c r="M112">
+      <c r="N113">
         <v>0.39978628218073298</v>
       </c>
-      <c r="N112">
+      <c r="O113">
         <v>0.35482213470129897</v>
       </c>
-      <c r="O112">
-        <v>3.2453000257532798</v>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114">
+        <v>1967</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>3.50903317881364</v>
+      </c>
+      <c r="F114">
+        <v>15.983870454544</v>
+      </c>
+      <c r="G114">
+        <v>16.847796212119601</v>
+      </c>
+      <c r="H114">
+        <v>23.049396212120499</v>
+      </c>
+      <c r="I114">
+        <v>1.93562196969619</v>
+      </c>
+      <c r="J114">
+        <v>22.047406060605301</v>
+      </c>
+      <c r="K114">
+        <v>1.3124922367171701</v>
+      </c>
+      <c r="L114">
+        <v>0.34186327564694602</v>
+      </c>
+      <c r="M114">
+        <v>0.14826694408292301</v>
+      </c>
+      <c r="N114">
+        <v>0.88777095317435595</v>
+      </c>
+      <c r="O114">
+        <v>0.21999389104879799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115">
+        <v>1967</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>3.30290580200018</v>
+      </c>
+      <c r="F115">
+        <v>13.7562387310597</v>
+      </c>
+      <c r="G115">
+        <v>18.0066779356046</v>
+      </c>
+      <c r="H115">
+        <v>23.5592279356053</v>
+      </c>
+      <c r="I115">
+        <v>3.9007129734840098</v>
+      </c>
+      <c r="J115">
+        <v>22.3892219696965</v>
+      </c>
+      <c r="K115">
+        <v>0.62569701402161004</v>
+      </c>
+      <c r="L115">
+        <v>0.22308331499543799</v>
+      </c>
+      <c r="M115">
+        <v>0.63944506996527195</v>
+      </c>
+      <c r="N115">
+        <v>0.52284169445357098</v>
+      </c>
+      <c r="O115">
+        <v>0.39366773115569498</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B116">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -4883,45 +6111,45 @@
         <v>2</v>
       </c>
       <c r="E116">
-        <v>15.983870454544</v>
+        <v>3.2593741952098898</v>
       </c>
       <c r="F116">
-        <v>16.847796212119601</v>
+        <v>14.541231060606099</v>
       </c>
       <c r="G116">
-        <v>23.049396212120499</v>
+        <v>14.5498401515153</v>
       </c>
       <c r="H116">
-        <v>1.93562196969619</v>
+        <v>21.867643181818199</v>
       </c>
       <c r="I116">
-        <v>22.047406060605301</v>
+        <v>2.51646136363635</v>
       </c>
       <c r="J116">
-        <v>1.3124922367171701</v>
+        <v>20.964827272727501</v>
       </c>
       <c r="K116">
-        <v>0.34186327564694602</v>
+        <v>1.2639020681731801</v>
       </c>
       <c r="L116">
-        <v>0.14826694408292301</v>
+        <v>1.94763657978048</v>
       </c>
       <c r="M116">
-        <v>0.88777095317435595</v>
+        <v>0.554059014211292</v>
       </c>
       <c r="N116">
-        <v>0.21999389104879799</v>
+        <v>0.32972569194901602</v>
       </c>
       <c r="O116">
-        <v>3.50903317881364</v>
+        <v>0.12829946149333399</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B117">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -4929,185 +6157,223 @@
       <c r="D117">
         <v>3</v>
       </c>
-      <c r="E117">
-        <v>13.7562387310597</v>
-      </c>
-      <c r="F117">
-        <v>18.0066779356046</v>
-      </c>
-      <c r="G117">
-        <v>23.5592279356053</v>
-      </c>
-      <c r="H117">
-        <v>3.9007129734840098</v>
-      </c>
-      <c r="I117">
-        <v>22.3892219696965</v>
-      </c>
-      <c r="J117">
-        <v>0.62569701402161004</v>
-      </c>
-      <c r="K117">
-        <v>0.22308331499543799</v>
-      </c>
-      <c r="L117">
-        <v>0.63944506996527195</v>
-      </c>
-      <c r="M117">
-        <v>0.52284169445357098</v>
-      </c>
-      <c r="N117">
-        <v>0.39366773115569498</v>
-      </c>
-      <c r="O117">
-        <v>3.30290580200018</v>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H117" t="s">
+        <v>105</v>
+      </c>
+      <c r="I117" t="s">
+        <v>105</v>
+      </c>
+      <c r="J117" t="s">
+        <v>105</v>
+      </c>
+      <c r="K117" t="s">
+        <v>105</v>
+      </c>
+      <c r="L117" t="s">
+        <v>105</v>
+      </c>
+      <c r="N117" t="s">
+        <v>105</v>
+      </c>
+      <c r="O117" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="B118">
         <v>1965</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>105</v>
+      </c>
+      <c r="G118" t="s">
+        <v>105</v>
+      </c>
+      <c r="H118" t="s">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s">
+        <v>105</v>
+      </c>
+      <c r="J118" t="s">
+        <v>105</v>
+      </c>
+      <c r="K118" t="s">
+        <v>105</v>
+      </c>
+      <c r="L118" t="s">
+        <v>105</v>
+      </c>
+      <c r="N118" t="s">
+        <v>105</v>
+      </c>
+      <c r="O118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119">
+        <v>1965</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119">
         <v>2</v>
       </c>
-      <c r="E118">
-        <v>14.541231060606099</v>
-      </c>
-      <c r="F118">
-        <v>14.5498401515153</v>
-      </c>
-      <c r="G118">
-        <v>21.867643181818199</v>
-      </c>
-      <c r="H118">
-        <v>2.51646136363635</v>
-      </c>
-      <c r="I118">
-        <v>20.964827272727501</v>
-      </c>
-      <c r="J118">
-        <v>1.2639020681731801</v>
-      </c>
-      <c r="K118">
-        <v>1.94763657978048</v>
-      </c>
-      <c r="L118">
-        <v>0.554059014211292</v>
-      </c>
-      <c r="M118">
-        <v>0.32972569194901602</v>
-      </c>
-      <c r="N118">
-        <v>0.12829946149333399</v>
-      </c>
-      <c r="O118">
-        <v>3.2593741952098898</v>
+      <c r="E119">
+        <v>3.1766117263284501</v>
+      </c>
+      <c r="F119">
+        <v>16.453922348485101</v>
+      </c>
+      <c r="G119">
+        <v>13.654066287878999</v>
+      </c>
+      <c r="H119">
+        <v>23.0158920454545</v>
+      </c>
+      <c r="I119">
+        <v>4.2490132575756299</v>
+      </c>
+      <c r="J119">
+        <v>23.3395984848488</v>
+      </c>
+      <c r="K119">
+        <v>0.74968282053036595</v>
+      </c>
+      <c r="L119">
+        <v>0.308324546801165</v>
+      </c>
+      <c r="M119">
+        <v>0.57646087965638504</v>
+      </c>
+      <c r="N119">
+        <v>0.71458159816431999</v>
+      </c>
+      <c r="O119">
+        <v>0.30151014782875701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120">
+        <v>1965</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" t="s">
+        <v>105</v>
+      </c>
+      <c r="I120" t="s">
+        <v>105</v>
+      </c>
+      <c r="J120" t="s">
+        <v>105</v>
+      </c>
+      <c r="K120" t="s">
+        <v>105</v>
+      </c>
+      <c r="L120" t="s">
+        <v>105</v>
+      </c>
+      <c r="N120" t="s">
+        <v>105</v>
+      </c>
+      <c r="O120" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B121">
         <v>1965</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>16.453922348485101</v>
+        <v>3.2552490288865998</v>
       </c>
       <c r="F121">
-        <v>13.654066287878999</v>
+        <v>17.064951988635102</v>
       </c>
       <c r="G121">
-        <v>23.0158920454545</v>
+        <v>17.2376313446956</v>
       </c>
       <c r="H121">
-        <v>4.2490132575756299</v>
+        <v>23.602448011362998</v>
       </c>
       <c r="I121">
-        <v>23.3395984848488</v>
+        <v>4.2803898674236303</v>
       </c>
       <c r="J121">
-        <v>0.74968282053036595</v>
+        <v>21.7826431818178</v>
       </c>
       <c r="K121">
-        <v>0.308324546801165</v>
+        <v>0.29334831117605498</v>
       </c>
       <c r="L121">
-        <v>0.57646087965638504</v>
+        <v>1.18514254468597</v>
       </c>
       <c r="M121">
-        <v>0.71458159816431999</v>
+        <v>0.32553234019152499</v>
       </c>
       <c r="N121">
-        <v>0.30151014782875701</v>
+        <v>1.8096317723955799</v>
       </c>
       <c r="O121">
-        <v>3.1766117263284501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123">
-        <v>1965</v>
-      </c>
-      <c r="C123" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>17.064951988635102</v>
-      </c>
-      <c r="F123">
-        <v>17.2376313446956</v>
-      </c>
-      <c r="G123">
-        <v>23.602448011362998</v>
-      </c>
-      <c r="H123">
-        <v>4.2803898674236303</v>
-      </c>
-      <c r="I123">
-        <v>21.7826431818178</v>
-      </c>
-      <c r="J123">
-        <v>0.29334831117605498</v>
-      </c>
-      <c r="K123">
-        <v>1.18514254468597</v>
-      </c>
-      <c r="L123">
-        <v>0.32553234019152499</v>
-      </c>
-      <c r="M123">
-        <v>1.8096317723955799</v>
-      </c>
-      <c r="N123">
         <v>0.48922515186778698</v>
       </c>
-      <c r="O123">
-        <v>3.2552490288865998</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O123">
-    <sortCondition descending="1" ref="B1:B123"/>
-    <sortCondition ref="C1:C123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O121">
+    <sortCondition descending="1" ref="B1:B121"/>
+    <sortCondition ref="C1:C121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/final/all.data.xlsx
+++ b/data/final/all.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/GitHub/CSIA_lab_work/data/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13864B72-CD4B-C047-A31D-C239C92B5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F0B19-9A27-B547-A64C-4F01B465E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="500" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/final/all.data.xlsx
+++ b/data/final/all.data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/GitHub/CSIA_lab_work/data/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F0B19-9A27-B547-A64C-4F01B465E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7ADA4F-B87F-4347-A73A-9E8A5472510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="540" windowWidth="26060" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -773,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,7 +924,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -934,45 +933,45 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3.0982570526441102</v>
+        <v>3.1037359340573101</v>
       </c>
       <c r="F4">
-        <v>22.732807102272599</v>
+        <v>15.674013857323301</v>
       </c>
       <c r="G4">
-        <v>13.2155851325768</v>
+        <v>14.715195517676699</v>
       </c>
       <c r="H4">
-        <v>23.079844128787101</v>
+        <v>21.9193641098488</v>
       </c>
       <c r="I4">
-        <v>4.86614933711971</v>
+        <v>3.6669884154041998</v>
       </c>
       <c r="J4">
-        <v>23.563267708333498</v>
+        <v>21.603291508838399</v>
       </c>
       <c r="K4">
-        <v>0.57248166492916297</v>
+        <v>0.56761871772595496</v>
       </c>
       <c r="L4">
-        <v>0.231793105493695</v>
+        <v>0.382050605543229</v>
       </c>
       <c r="M4">
-        <v>0.13484975845293801</v>
+        <v>0.28262584565195198</v>
       </c>
       <c r="N4">
-        <v>0.84059122724241198</v>
+        <v>0.87938105861025995</v>
       </c>
       <c r="O4">
-        <v>0.18563145565198699</v>
+        <v>0.20776400582854801</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -981,45 +980,45 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3.1037359340573101</v>
+        <v>3.0982570526441102</v>
       </c>
       <c r="F5">
-        <v>15.674013857323301</v>
+        <v>22.732807102272599</v>
       </c>
       <c r="G5">
-        <v>14.715195517676699</v>
+        <v>13.2155851325768</v>
       </c>
       <c r="H5">
-        <v>21.9193641098488</v>
+        <v>23.079844128787101</v>
       </c>
       <c r="I5">
-        <v>3.6669884154041998</v>
+        <v>4.86614933711971</v>
       </c>
       <c r="J5">
-        <v>21.603291508838399</v>
+        <v>23.563267708333498</v>
       </c>
       <c r="K5">
-        <v>0.56761871772595496</v>
+        <v>0.57248166492916297</v>
       </c>
       <c r="L5">
-        <v>0.382050605543229</v>
+        <v>0.231793105493695</v>
       </c>
       <c r="M5">
-        <v>0.28262584565195198</v>
+        <v>0.13484975845293801</v>
       </c>
       <c r="N5">
-        <v>0.87938105861025995</v>
+        <v>0.84059122724241198</v>
       </c>
       <c r="O5">
-        <v>0.20776400582854801</v>
+        <v>0.18563145565198699</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -1028,45 +1027,45 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3.0738899530002799</v>
+        <v>2.8191280233281999</v>
       </c>
       <c r="F6">
-        <v>17.829706155303199</v>
+        <v>20.980894081439502</v>
       </c>
       <c r="G6">
-        <v>13.298605492424301</v>
+        <v>13.2767990056819</v>
       </c>
       <c r="H6">
-        <v>22.822145928030501</v>
+        <v>20.456195549242501</v>
       </c>
       <c r="I6">
-        <v>4.7804828598484903</v>
+        <v>4.2131517045454396</v>
       </c>
       <c r="J6">
-        <v>22.751286458333801</v>
+        <v>21.443118655303302</v>
       </c>
       <c r="K6">
-        <v>0.51283727694324299</v>
+        <v>1.95962779844855</v>
       </c>
       <c r="L6">
-        <v>0.59296027716572397</v>
+        <v>0.587661009841843</v>
       </c>
       <c r="M6">
-        <v>0.175238409725921</v>
+        <v>0.37977371520988301</v>
       </c>
       <c r="N6">
-        <v>0.98713566856271695</v>
+        <v>0.43369373768621799</v>
       </c>
       <c r="O6">
-        <v>0.22168868846454501</v>
+        <v>0.18081396966260399</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -1075,45 +1074,45 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2.8191280233281999</v>
+        <v>3.0738899530002799</v>
       </c>
       <c r="F7">
-        <v>20.980894081439502</v>
+        <v>17.829706155303199</v>
       </c>
       <c r="G7">
-        <v>13.2767990056819</v>
+        <v>13.298605492424301</v>
       </c>
       <c r="H7">
-        <v>20.456195549242501</v>
+        <v>22.822145928030501</v>
       </c>
       <c r="I7">
-        <v>4.2131517045454396</v>
+        <v>4.7804828598484903</v>
       </c>
       <c r="J7">
-        <v>21.443118655303302</v>
+        <v>22.751286458333801</v>
       </c>
       <c r="K7">
-        <v>1.95962779844855</v>
+        <v>0.51283727694324299</v>
       </c>
       <c r="L7">
-        <v>0.587661009841843</v>
+        <v>0.59296027716572397</v>
       </c>
       <c r="M7">
-        <v>0.37977371520988301</v>
+        <v>0.175238409725921</v>
       </c>
       <c r="N7">
-        <v>0.43369373768621799</v>
+        <v>0.98713566856271695</v>
       </c>
       <c r="O7">
-        <v>0.18081396966260399</v>
+        <v>0.22168868846454501</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -1122,45 +1121,42 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2.9976174859429898</v>
-      </c>
-      <c r="F8">
-        <v>16.160062215909001</v>
-      </c>
-      <c r="G8">
-        <v>16.770415814394099</v>
-      </c>
-      <c r="H8">
-        <v>22.178386837121401</v>
-      </c>
-      <c r="I8">
-        <v>4.6752073863638604</v>
-      </c>
-      <c r="J8">
-        <v>21.6405293110831</v>
-      </c>
-      <c r="K8">
-        <v>5.4111830653238</v>
-      </c>
-      <c r="L8">
-        <v>1.2132071018409101</v>
-      </c>
-      <c r="M8">
-        <v>0.35158428600518099</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
       </c>
       <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="O8">
-        <v>0.24169796009913599</v>
+      <c r="O8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -1169,42 +1165,45 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2.9976174859429898</v>
+      </c>
+      <c r="F9">
+        <v>16.160062215909001</v>
+      </c>
+      <c r="G9">
+        <v>16.770415814394099</v>
+      </c>
+      <c r="H9">
+        <v>22.178386837121401</v>
+      </c>
+      <c r="I9">
+        <v>4.6752073863638604</v>
+      </c>
+      <c r="J9">
+        <v>21.6405293110831</v>
+      </c>
+      <c r="K9">
+        <v>5.4111830653238</v>
+      </c>
+      <c r="L9">
+        <v>1.2132071018409101</v>
+      </c>
+      <c r="M9">
+        <v>0.35158428600518099</v>
       </c>
       <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="O9" t="s">
-        <v>105</v>
+      <c r="O9">
+        <v>0.24169796009913599</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -1213,45 +1212,45 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3.12108829084044</v>
+        <v>3.2967590297449898</v>
       </c>
       <c r="F10">
-        <v>17.351394696969599</v>
+        <v>16.243347443181602</v>
       </c>
       <c r="G10">
-        <v>14.9413507575756</v>
+        <v>12.708854829545499</v>
       </c>
       <c r="H10">
-        <v>23.612276515151599</v>
+        <v>24.139085700757601</v>
       </c>
       <c r="I10">
-        <v>5.2373931818181001</v>
+        <v>4.5239669507579503</v>
       </c>
       <c r="J10">
-        <v>22.8602413350457</v>
+        <v>23.130793324776</v>
       </c>
       <c r="K10">
-        <v>0.834711738013167</v>
+        <v>0.768146296749184</v>
       </c>
       <c r="L10">
-        <v>0.40252825609840798</v>
+        <v>1.9757671953484699</v>
       </c>
       <c r="M10">
-        <v>0.46359343129610697</v>
+        <v>0.44586121362325398</v>
       </c>
       <c r="N10">
-        <v>0.43167780176725901</v>
+        <v>0.49351886152236901</v>
       </c>
       <c r="O10">
-        <v>3.7474449729002601E-2</v>
+        <v>6.8775895895154995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1260,40 +1259,40 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>3.2967590297449898</v>
+        <v>3.12108829084044</v>
       </c>
       <c r="F11">
-        <v>16.243347443181602</v>
+        <v>17.351394696969599</v>
       </c>
       <c r="G11">
-        <v>12.708854829545499</v>
+        <v>14.9413507575756</v>
       </c>
       <c r="H11">
-        <v>24.139085700757601</v>
+        <v>23.612276515151599</v>
       </c>
       <c r="I11">
-        <v>4.5239669507579503</v>
+        <v>5.2373931818181001</v>
       </c>
       <c r="J11">
-        <v>23.130793324776</v>
+        <v>22.8602413350457</v>
       </c>
       <c r="K11">
-        <v>0.768146296749184</v>
+        <v>0.834711738013167</v>
       </c>
       <c r="L11">
-        <v>1.9757671953484699</v>
+        <v>0.40252825609840798</v>
       </c>
       <c r="M11">
-        <v>0.44586121362325398</v>
+        <v>0.46359343129610697</v>
       </c>
       <c r="N11">
-        <v>0.49351886152236901</v>
+        <v>0.43167780176725901</v>
       </c>
       <c r="O11">
-        <v>6.8775895895154995E-2</v>
+        <v>3.7474449729002601E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1389,7 +1388,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>2016</v>
@@ -1398,45 +1397,42 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>3.1154395763584799</v>
-      </c>
-      <c r="F14">
-        <v>25.5220957386367</v>
-      </c>
-      <c r="G14">
-        <v>10.874543655304899</v>
-      </c>
-      <c r="H14">
-        <v>21.518581249999801</v>
-      </c>
-      <c r="I14">
-        <v>3.1835778409089102</v>
-      </c>
-      <c r="J14">
-        <v>23.292986079545699</v>
-      </c>
-      <c r="K14">
-        <v>0.41870590482652198</v>
-      </c>
-      <c r="L14">
-        <v>0.35578067315169998</v>
-      </c>
-      <c r="M14">
-        <v>0.55376887809945696</v>
-      </c>
-      <c r="N14">
-        <v>0.264365502145259</v>
-      </c>
-      <c r="O14">
-        <v>0.87083925659769201</v>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -1445,37 +1441,40 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3.1154395763584799</v>
+      </c>
+      <c r="F15">
+        <v>25.5220957386367</v>
+      </c>
+      <c r="G15">
+        <v>10.874543655304899</v>
+      </c>
+      <c r="H15">
+        <v>21.518581249999801</v>
+      </c>
+      <c r="I15">
+        <v>3.1835778409089102</v>
+      </c>
+      <c r="J15">
+        <v>23.292986079545699</v>
+      </c>
+      <c r="K15">
+        <v>0.41870590482652198</v>
+      </c>
+      <c r="L15">
+        <v>0.35578067315169998</v>
+      </c>
+      <c r="M15">
+        <v>0.55376887809945696</v>
+      </c>
+      <c r="N15">
+        <v>0.264365502145259</v>
+      </c>
+      <c r="O15">
+        <v>0.87083925659769201</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1571,7 +1570,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -1580,45 +1579,45 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3.32367460457986</v>
+        <v>3.0720285941926901</v>
       </c>
       <c r="F18">
-        <v>16.170347821969902</v>
+        <v>16.464097443182101</v>
       </c>
       <c r="G18">
-        <v>15.9840576704549</v>
+        <v>12.8817800189395</v>
       </c>
       <c r="H18">
-        <v>23.6206793560604</v>
+        <v>23.0396801136365</v>
       </c>
       <c r="I18">
-        <v>3.8155366477265602</v>
+        <v>5.0111582386361198</v>
       </c>
       <c r="J18">
-        <v>23.665111458333399</v>
+        <v>23.364448958333401</v>
       </c>
       <c r="K18">
-        <v>0.43621084281391898</v>
+        <v>0.503435705731199</v>
       </c>
       <c r="L18">
-        <v>0.82553894598009103</v>
+        <v>1.3575074661831501</v>
       </c>
       <c r="M18">
-        <v>0.40943630800090203</v>
+        <v>8.0547227386720294E-2</v>
       </c>
       <c r="N18">
-        <v>1.39217919100183</v>
+        <v>0.16121565922432399</v>
       </c>
       <c r="O18">
-        <v>0.25347951683019998</v>
+        <v>0.15212891269404699</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -1627,45 +1626,45 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>3.0720285941926901</v>
+        <v>3.32367460457986</v>
       </c>
       <c r="F19">
-        <v>16.464097443182101</v>
+        <v>16.170347821969902</v>
       </c>
       <c r="G19">
-        <v>12.8817800189395</v>
+        <v>15.9840576704549</v>
       </c>
       <c r="H19">
-        <v>23.0396801136365</v>
+        <v>23.6206793560604</v>
       </c>
       <c r="I19">
-        <v>5.0111582386361198</v>
+        <v>3.8155366477265602</v>
       </c>
       <c r="J19">
-        <v>23.364448958333401</v>
+        <v>23.665111458333399</v>
       </c>
       <c r="K19">
-        <v>0.503435705731199</v>
+        <v>0.43621084281391898</v>
       </c>
       <c r="L19">
-        <v>1.3575074661831501</v>
+        <v>0.82553894598009103</v>
       </c>
       <c r="M19">
-        <v>8.0547227386720294E-2</v>
+        <v>0.40943630800090203</v>
       </c>
       <c r="N19">
-        <v>0.16121565922432399</v>
+        <v>1.39217919100183</v>
       </c>
       <c r="O19">
-        <v>0.15212891269404699</v>
+        <v>0.25347951683019998</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>2013</v>
@@ -1674,45 +1673,45 @@
         <v>15</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3.03723620321494</v>
+        <v>3.0853949373337599</v>
       </c>
       <c r="F20">
-        <v>21.904619886362902</v>
+        <v>19.099367424241802</v>
       </c>
       <c r="G20">
-        <v>13.595218560606201</v>
+        <v>15.219098484848599</v>
       </c>
       <c r="H20">
-        <v>19.361971212119698</v>
+        <v>21.474636363635099</v>
       </c>
       <c r="I20">
-        <v>1.5790836174222</v>
+        <v>3.3517481060587602</v>
       </c>
       <c r="J20">
-        <v>20.187763636362899</v>
+        <v>21.778575757575201</v>
       </c>
       <c r="K20">
-        <v>1.9747284297682901</v>
+        <v>0.31256932432631301</v>
       </c>
       <c r="L20">
-        <v>0.896100341526889</v>
+        <v>0.63505186119150503</v>
       </c>
       <c r="M20">
-        <v>0.42530581108263499</v>
+        <v>0.343051983296773</v>
       </c>
       <c r="N20">
-        <v>0.554908588375714</v>
+        <v>1.1333987692540599</v>
       </c>
       <c r="O20">
-        <v>0.53933165741891698</v>
+        <v>0.63403668307301997</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>2013</v>
@@ -1721,40 +1720,40 @@
         <v>15</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>3.0853949373337599</v>
+        <v>3.03723620321494</v>
       </c>
       <c r="F21">
-        <v>19.099367424241802</v>
+        <v>21.904619886362902</v>
       </c>
       <c r="G21">
-        <v>15.219098484848599</v>
+        <v>13.595218560606201</v>
       </c>
       <c r="H21">
-        <v>21.474636363635099</v>
+        <v>19.361971212119698</v>
       </c>
       <c r="I21">
-        <v>3.3517481060587602</v>
+        <v>1.5790836174222</v>
       </c>
       <c r="J21">
-        <v>21.778575757575201</v>
+        <v>20.187763636362899</v>
       </c>
       <c r="K21">
-        <v>0.31256932432631301</v>
+        <v>1.9747284297682901</v>
       </c>
       <c r="L21">
-        <v>0.63505186119150503</v>
+        <v>0.896100341526889</v>
       </c>
       <c r="M21">
-        <v>0.343051983296773</v>
+        <v>0.42530581108263499</v>
       </c>
       <c r="N21">
-        <v>1.1333987692540599</v>
+        <v>0.554908588375714</v>
       </c>
       <c r="O21">
-        <v>0.63403668307301997</v>
+        <v>0.53933165741891698</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1853,7 +1852,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>2013</v>
@@ -1862,45 +1861,45 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2.9729312803136501</v>
+        <v>3.1234903143509301</v>
       </c>
       <c r="F24">
-        <v>18.556813541666799</v>
+        <v>16.173484185606199</v>
       </c>
       <c r="G24">
-        <v>13.452238399622001</v>
+        <v>14.1938724905309</v>
       </c>
       <c r="H24">
-        <v>21.782171543559901</v>
+        <v>22.7720126420447</v>
       </c>
       <c r="I24">
-        <v>4.4532767045455399</v>
+        <v>4.3801710227271196</v>
       </c>
       <c r="J24">
-        <v>22.259632670454501</v>
+        <v>21.9993953598484</v>
       </c>
       <c r="K24">
-        <v>0.91858420511985195</v>
+        <v>0.74661925400283902</v>
       </c>
       <c r="L24">
-        <v>7.0174429431738794E-2</v>
+        <v>0.96831251829311005</v>
       </c>
       <c r="M24">
-        <v>1.68496148291991</v>
+        <v>0.354048414184226</v>
       </c>
       <c r="N24">
-        <v>0.82908839684969104</v>
+        <v>0.83847214499980305</v>
       </c>
       <c r="O24">
-        <v>0.38026809837207198</v>
+        <v>0.27407905272535099</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>2013</v>
@@ -1909,45 +1908,45 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>3.1234903143509301</v>
+        <v>2.9729312803136501</v>
       </c>
       <c r="F25">
-        <v>16.173484185606199</v>
+        <v>18.556813541666799</v>
       </c>
       <c r="G25">
-        <v>14.1938724905309</v>
+        <v>13.452238399622001</v>
       </c>
       <c r="H25">
-        <v>22.7720126420447</v>
+        <v>21.782171543559901</v>
       </c>
       <c r="I25">
-        <v>4.3801710227271196</v>
+        <v>4.4532767045455399</v>
       </c>
       <c r="J25">
-        <v>21.9993953598484</v>
+        <v>22.259632670454501</v>
       </c>
       <c r="K25">
-        <v>0.74661925400283902</v>
+        <v>0.91858420511985195</v>
       </c>
       <c r="L25">
-        <v>0.96831251829311005</v>
+        <v>7.0174429431738794E-2</v>
       </c>
       <c r="M25">
-        <v>0.354048414184226</v>
+        <v>1.68496148291991</v>
       </c>
       <c r="N25">
-        <v>0.83847214499980305</v>
+        <v>0.82908839684969104</v>
       </c>
       <c r="O25">
-        <v>0.27407905272535099</v>
+        <v>0.38026809837207198</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>2010</v>
@@ -1956,45 +1955,45 @@
         <v>15</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>3.01541439984118</v>
+        <v>3.4725875075113701</v>
       </c>
       <c r="F26">
-        <v>22.640605965908801</v>
+        <v>15.3910435606058</v>
       </c>
       <c r="G26">
-        <v>15.512031155303999</v>
+        <v>14.858153409092001</v>
       </c>
       <c r="H26">
-        <v>21.733722916666</v>
+        <v>23.076458333332798</v>
       </c>
       <c r="I26">
-        <v>4.1048972537872901</v>
+        <v>2.2199905303025398</v>
       </c>
       <c r="J26">
-        <v>22.490341856060098</v>
+        <v>22.1677765151511</v>
       </c>
       <c r="K26">
-        <v>3.54492051359018</v>
+        <v>0.72801686597369497</v>
       </c>
       <c r="L26">
-        <v>0.71993256884775703</v>
+        <v>0.39946501107159899</v>
       </c>
       <c r="M26">
-        <v>0.311818082376973</v>
+        <v>0.30932560352708099</v>
       </c>
       <c r="N26">
-        <v>0.31771835939710402</v>
+        <v>0.30546241713889899</v>
       </c>
       <c r="O26">
-        <v>0.25670348854264802</v>
+        <v>5.7223860709326398E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>2010</v>
@@ -2003,40 +2002,40 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>3.4725875075113701</v>
+        <v>3.01541439984118</v>
       </c>
       <c r="F27">
-        <v>15.3910435606058</v>
+        <v>22.640605965908801</v>
       </c>
       <c r="G27">
-        <v>14.858153409092001</v>
+        <v>15.512031155303999</v>
       </c>
       <c r="H27">
-        <v>23.076458333332798</v>
+        <v>21.733722916666</v>
       </c>
       <c r="I27">
-        <v>2.2199905303025398</v>
+        <v>4.1048972537872901</v>
       </c>
       <c r="J27">
-        <v>22.1677765151511</v>
+        <v>22.490341856060098</v>
       </c>
       <c r="K27">
-        <v>0.72801686597369497</v>
+        <v>3.54492051359018</v>
       </c>
       <c r="L27">
-        <v>0.39946501107159899</v>
+        <v>0.71993256884775703</v>
       </c>
       <c r="M27">
-        <v>0.30932560352708099</v>
+        <v>0.311818082376973</v>
       </c>
       <c r="N27">
-        <v>0.30546241713889899</v>
+        <v>0.31771835939710402</v>
       </c>
       <c r="O27">
-        <v>5.7223860709326398E-2</v>
+        <v>0.25670348854264802</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2223,7 +2222,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>2007</v>
@@ -2232,45 +2231,45 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>2.4051562902394501</v>
+        <v>3.3232860981196302</v>
       </c>
       <c r="F32">
-        <v>17.174147159090801</v>
+        <v>23.418755031909701</v>
       </c>
       <c r="G32">
-        <v>16.081215530303599</v>
+        <v>13.687078055965999</v>
       </c>
       <c r="H32">
-        <v>19.638522916665799</v>
+        <v>22.149170348551401</v>
       </c>
       <c r="I32">
-        <v>6.3181195075752701</v>
+        <v>2.3467704958267799</v>
       </c>
       <c r="J32">
-        <v>22.1427538825758</v>
+        <v>21.944751104565601</v>
       </c>
       <c r="K32">
-        <v>9.0555139732303405E-2</v>
+        <v>1.6587388083822401</v>
       </c>
       <c r="L32">
-        <v>0.66775273333767504</v>
+        <v>0.17517910508831</v>
       </c>
       <c r="M32">
-        <v>0.72547168315492805</v>
+        <v>0.30151629250316903</v>
       </c>
       <c r="N32">
-        <v>0.59593228839099199</v>
+        <v>0.23857181677546099</v>
       </c>
       <c r="O32">
-        <v>0.36746486500400299</v>
+        <v>8.4375127133891406E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>2007</v>
@@ -2279,40 +2278,40 @@
         <v>15</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>3.3232860981196302</v>
+        <v>2.4051562902394501</v>
       </c>
       <c r="F33">
-        <v>23.418755031909701</v>
+        <v>17.174147159090801</v>
       </c>
       <c r="G33">
-        <v>13.687078055965999</v>
+        <v>16.081215530303599</v>
       </c>
       <c r="H33">
-        <v>22.149170348551401</v>
+        <v>19.638522916665799</v>
       </c>
       <c r="I33">
-        <v>2.3467704958267799</v>
+        <v>6.3181195075752701</v>
       </c>
       <c r="J33">
-        <v>21.944751104565601</v>
+        <v>22.1427538825758</v>
       </c>
       <c r="K33">
-        <v>1.6587388083822401</v>
+        <v>9.0555139732303405E-2</v>
       </c>
       <c r="L33">
-        <v>0.17517910508831</v>
+        <v>0.66775273333767504</v>
       </c>
       <c r="M33">
-        <v>0.30151629250316903</v>
+        <v>0.72547168315492805</v>
       </c>
       <c r="N33">
-        <v>0.23857181677546099</v>
+        <v>0.59593228839099199</v>
       </c>
       <c r="O33">
-        <v>8.4375127133891406E-2</v>
+        <v>0.36746486500400299</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2781,7 +2780,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>2001</v>
@@ -2790,45 +2789,45 @@
         <v>15</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>3.0357562880932401</v>
+        <v>2.9526729695145502</v>
       </c>
       <c r="F44">
-        <v>16.134823863635301</v>
+        <v>17.236741619318099</v>
       </c>
       <c r="G44">
-        <v>14.550028409090899</v>
+        <v>14.622726231060501</v>
       </c>
       <c r="H44">
-        <v>23.1676818181787</v>
+        <v>22.246496543560198</v>
       </c>
       <c r="I44">
-        <v>5.3952424242403998</v>
+        <v>5.0606253787874698</v>
       </c>
       <c r="J44">
-        <v>23.443418560605501</v>
+        <v>22.929770265151301</v>
       </c>
       <c r="K44">
-        <v>9.9604133889723598E-2</v>
+        <v>0.72475380589166405</v>
       </c>
       <c r="L44">
-        <v>1.8100585806652201</v>
+        <v>0.301369759311787</v>
       </c>
       <c r="M44">
-        <v>6.5628085326572494E-2</v>
+        <v>0.35660622246304802</v>
       </c>
       <c r="N44">
-        <v>0.7108904653068</v>
+        <v>0.58909533874144904</v>
       </c>
       <c r="O44">
-        <v>0.48500100816012398</v>
+        <v>0.24585894510642001</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>2001</v>
@@ -2837,45 +2836,45 @@
         <v>15</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2.9526729695145502</v>
+        <v>3.0357562880932401</v>
       </c>
       <c r="F45">
-        <v>17.236741619318099</v>
+        <v>16.134823863635301</v>
       </c>
       <c r="G45">
-        <v>14.622726231060501</v>
+        <v>14.550028409090899</v>
       </c>
       <c r="H45">
-        <v>22.246496543560198</v>
+        <v>23.1676818181787</v>
       </c>
       <c r="I45">
-        <v>5.0606253787874698</v>
+        <v>5.3952424242403998</v>
       </c>
       <c r="J45">
-        <v>22.929770265151301</v>
+        <v>23.443418560605501</v>
       </c>
       <c r="K45">
-        <v>0.72475380589166405</v>
+        <v>9.9604133889723598E-2</v>
       </c>
       <c r="L45">
-        <v>0.301369759311787</v>
+        <v>1.8100585806652201</v>
       </c>
       <c r="M45">
-        <v>0.35660622246304802</v>
+        <v>6.5628085326572494E-2</v>
       </c>
       <c r="N45">
-        <v>0.58909533874144904</v>
+        <v>0.7108904653068</v>
       </c>
       <c r="O45">
-        <v>0.24585894510642001</v>
+        <v>0.48500100816012398</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>2001</v>
@@ -2884,45 +2883,45 @@
         <v>17</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2.6065299503222201</v>
+        <v>2.7834311958106501</v>
       </c>
       <c r="F46">
-        <v>13.633384057970799</v>
+        <v>15.178737121211199</v>
       </c>
       <c r="G46">
-        <v>13.399521080368901</v>
+        <v>15.074655303030299</v>
       </c>
       <c r="H46">
-        <v>21.097020421606899</v>
+        <v>22.280393939391502</v>
       </c>
       <c r="I46">
-        <v>6.3549189723320101</v>
+        <v>6.2893696969683299</v>
       </c>
       <c r="J46">
-        <v>21.996361001317201</v>
+        <v>23.944499242423799</v>
       </c>
       <c r="K46">
-        <v>0.98099030447462499</v>
+        <v>0.63114745278900397</v>
       </c>
       <c r="L46">
-        <v>2.3050261256776401</v>
+        <v>1.81471045059859</v>
       </c>
       <c r="M46">
-        <v>0.51327355730724999</v>
+        <v>0.49423704223447701</v>
       </c>
       <c r="N46">
-        <v>0.96932082505778405</v>
+        <v>0.422905683693657</v>
       </c>
       <c r="O46">
-        <v>0.36600048450578299</v>
+        <v>0.39257435828117199</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>2001</v>
@@ -2931,40 +2930,40 @@
         <v>17</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>2.7834311958106501</v>
+        <v>2.6065299503222201</v>
       </c>
       <c r="F47">
-        <v>15.178737121211199</v>
+        <v>13.633384057970799</v>
       </c>
       <c r="G47">
-        <v>15.074655303030299</v>
+        <v>13.399521080368901</v>
       </c>
       <c r="H47">
-        <v>22.280393939391502</v>
+        <v>21.097020421606899</v>
       </c>
       <c r="I47">
-        <v>6.2893696969683299</v>
+        <v>6.3549189723320101</v>
       </c>
       <c r="J47">
-        <v>23.944499242423799</v>
+        <v>21.996361001317201</v>
       </c>
       <c r="K47">
-        <v>0.63114745278900397</v>
+        <v>0.98099030447462499</v>
       </c>
       <c r="L47">
-        <v>1.81471045059859</v>
+        <v>2.3050261256776401</v>
       </c>
       <c r="M47">
-        <v>0.49423704223447701</v>
+        <v>0.51327355730724999</v>
       </c>
       <c r="N47">
-        <v>0.422905683693657</v>
+        <v>0.96932082505778405</v>
       </c>
       <c r="O47">
-        <v>0.39257435828117199</v>
+        <v>0.36600048450578299</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3063,7 +3062,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>1998</v>
@@ -3072,45 +3071,45 @@
         <v>15</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>3.1980770479225602</v>
+        <v>2.8976157273165999</v>
       </c>
       <c r="F50">
-        <v>20.2107838068181</v>
+        <v>15.298279086892601</v>
       </c>
       <c r="G50">
-        <v>13.115637689394701</v>
+        <v>14.588471526756001</v>
       </c>
       <c r="H50">
-        <v>21.303992140150399</v>
+        <v>22.5070741286203</v>
       </c>
       <c r="I50">
-        <v>2.3855681818171499</v>
+        <v>5.7099070937650804</v>
       </c>
       <c r="J50">
-        <v>21.8010147727272</v>
+        <v>23.150788905252899</v>
       </c>
       <c r="K50">
-        <v>1.88016165710851</v>
+        <v>1.1002051158653601</v>
       </c>
       <c r="L50">
-        <v>1.4597959741786499</v>
+        <v>3.2342867647959599</v>
       </c>
       <c r="M50">
-        <v>0.28636027537133102</v>
+        <v>0.24571149037135201</v>
       </c>
       <c r="N50">
-        <v>0.405797254393856</v>
+        <v>0.91041999563978304</v>
       </c>
       <c r="O50">
-        <v>0.25670956683739099</v>
+        <v>0.102247579810678</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>1998</v>
@@ -3119,40 +3118,40 @@
         <v>15</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>2.8976157273165999</v>
+        <v>3.1980770479225602</v>
       </c>
       <c r="F51">
-        <v>15.298279086892601</v>
+        <v>20.2107838068181</v>
       </c>
       <c r="G51">
-        <v>14.588471526756001</v>
+        <v>13.115637689394701</v>
       </c>
       <c r="H51">
-        <v>22.5070741286203</v>
+        <v>21.303992140150399</v>
       </c>
       <c r="I51">
-        <v>5.7099070937650804</v>
+        <v>2.3855681818171499</v>
       </c>
       <c r="J51">
-        <v>23.150788905252899</v>
+        <v>21.8010147727272</v>
       </c>
       <c r="K51">
-        <v>1.1002051158653601</v>
+        <v>1.88016165710851</v>
       </c>
       <c r="L51">
-        <v>3.2342867647959599</v>
+        <v>1.4597959741786499</v>
       </c>
       <c r="M51">
-        <v>0.24571149037135201</v>
+        <v>0.28636027537133102</v>
       </c>
       <c r="N51">
-        <v>0.91041999563978304</v>
+        <v>0.405797254393856</v>
       </c>
       <c r="O51">
-        <v>0.102247579810678</v>
+        <v>0.25670956683739099</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3339,7 +3338,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>1995</v>
@@ -3348,45 +3347,45 @@
         <v>15</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>2.9903138144903298</v>
+        <v>2.5709188556956102</v>
       </c>
       <c r="F56">
-        <v>17.727784090909001</v>
+        <v>17.605019696969499</v>
       </c>
       <c r="G56">
-        <v>14.8295473484848</v>
+        <v>15.9203143939394</v>
       </c>
       <c r="H56">
-        <v>22.217017045452899</v>
+        <v>22.7057265151502</v>
       </c>
       <c r="I56">
-        <v>4.7654015151511597</v>
+        <v>8.2150393939392092</v>
       </c>
       <c r="J56">
-        <v>22.930003787878199</v>
+        <v>24.198065151514601</v>
       </c>
       <c r="K56">
-        <v>0.33520303298777199</v>
+        <v>3.0572865947709702</v>
       </c>
       <c r="L56">
-        <v>1.1070327874127499</v>
+        <v>2.2902017611143699</v>
       </c>
       <c r="M56">
-        <v>0.14132173874700699</v>
+        <v>0.83171479750647703</v>
       </c>
       <c r="N56">
-        <v>1.4202076894511699</v>
+        <v>1.08042586849461</v>
       </c>
       <c r="O56">
-        <v>0.72772170691586002</v>
+        <v>0.208484779231047</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>1995</v>
@@ -3395,40 +3394,40 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>2.5709188556956102</v>
+        <v>2.9903138144903298</v>
       </c>
       <c r="F57">
-        <v>17.605019696969499</v>
+        <v>17.727784090909001</v>
       </c>
       <c r="G57">
-        <v>15.9203143939394</v>
+        <v>14.8295473484848</v>
       </c>
       <c r="H57">
-        <v>22.7057265151502</v>
+        <v>22.217017045452899</v>
       </c>
       <c r="I57">
-        <v>8.2150393939392092</v>
+        <v>4.7654015151511597</v>
       </c>
       <c r="J57">
-        <v>24.198065151514601</v>
+        <v>22.930003787878199</v>
       </c>
       <c r="K57">
-        <v>3.0572865947709702</v>
+        <v>0.33520303298777199</v>
       </c>
       <c r="L57">
-        <v>2.2902017611143699</v>
+        <v>1.1070327874127499</v>
       </c>
       <c r="M57">
-        <v>0.83171479750647703</v>
+        <v>0.14132173874700699</v>
       </c>
       <c r="N57">
-        <v>1.08042586849461</v>
+        <v>1.4202076894511699</v>
       </c>
       <c r="O57">
-        <v>0.208484779231047</v>
+        <v>0.72772170691586002</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3524,7 +3523,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>1995</v>
@@ -3533,45 +3532,45 @@
         <v>20</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>2.56964078864066</v>
+        <v>2.8920405721521201</v>
       </c>
       <c r="F60">
-        <v>19.191472443181802</v>
+        <v>16.644222821969699</v>
       </c>
       <c r="G60">
-        <v>17.716570643938699</v>
+        <v>15.6334774621207</v>
       </c>
       <c r="H60">
-        <v>18.478068655303002</v>
+        <v>21.2935553977272</v>
       </c>
       <c r="I60">
-        <v>3.99640468749991</v>
+        <v>4.53574895833325</v>
       </c>
       <c r="J60">
-        <v>22.3341442234846</v>
+        <v>23.107927178030099</v>
       </c>
       <c r="K60">
-        <v>3.1002599489051201</v>
+        <v>0.224321414275655</v>
       </c>
       <c r="L60">
-        <v>2.0591265071656899</v>
+        <v>0.80638467431300798</v>
       </c>
       <c r="M60">
-        <v>0.42861630850666399</v>
+        <v>0.24101535938511401</v>
       </c>
       <c r="N60">
-        <v>0.90226604308528202</v>
+        <v>0.84652445451565395</v>
       </c>
       <c r="O60">
-        <v>0.58624480037363702</v>
+        <v>0.35106443626249201</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>1995</v>
@@ -3580,40 +3579,40 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>2.8920405721521201</v>
+        <v>2.56964078864066</v>
       </c>
       <c r="F61">
-        <v>16.644222821969699</v>
+        <v>19.191472443181802</v>
       </c>
       <c r="G61">
-        <v>15.6334774621207</v>
+        <v>17.716570643938699</v>
       </c>
       <c r="H61">
-        <v>21.2935553977272</v>
+        <v>18.478068655303002</v>
       </c>
       <c r="I61">
-        <v>4.53574895833325</v>
+        <v>3.99640468749991</v>
       </c>
       <c r="J61">
-        <v>23.107927178030099</v>
+        <v>22.3341442234846</v>
       </c>
       <c r="K61">
-        <v>0.224321414275655</v>
+        <v>3.1002599489051201</v>
       </c>
       <c r="L61">
-        <v>0.80638467431300798</v>
+        <v>2.0591265071656899</v>
       </c>
       <c r="M61">
-        <v>0.24101535938511401</v>
+        <v>0.42861630850666399</v>
       </c>
       <c r="N61">
-        <v>0.84652445451565395</v>
+        <v>0.90226604308528202</v>
       </c>
       <c r="O61">
-        <v>0.35106443626249201</v>
+        <v>0.58624480037363702</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3800,7 +3799,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B66">
         <v>1992</v>
@@ -3809,45 +3808,45 @@
         <v>20</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>2.56893579921018</v>
+        <v>3.2838045111168399</v>
       </c>
       <c r="F66">
-        <v>16.8622334280298</v>
+        <v>17.4830022727268</v>
       </c>
       <c r="G66">
-        <v>13.844948200757599</v>
+        <v>13.062035606060199</v>
       </c>
       <c r="H66">
-        <v>21.294684943180702</v>
+        <v>22.8674977272726</v>
       </c>
       <c r="I66">
-        <v>6.8179982007568398</v>
+        <v>3.3438378787877201</v>
       </c>
       <c r="J66">
-        <v>23.642611837120999</v>
+        <v>23.4529439393934</v>
       </c>
       <c r="K66">
-        <v>0.35675424178745302</v>
+        <v>1.40218989150409</v>
       </c>
       <c r="L66">
-        <v>2.9326733782016001</v>
+        <v>0.567292835754167</v>
       </c>
       <c r="M66">
-        <v>0.25933369779212001</v>
+        <v>5.8655096555426799E-2</v>
       </c>
       <c r="N66">
-        <v>1.0717685413879401</v>
+        <v>3.0063054311838</v>
       </c>
       <c r="O66">
-        <v>0.28330952991673197</v>
+        <v>0.210411889439334</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B67">
         <v>1992</v>
@@ -3856,45 +3855,45 @@
         <v>20</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>3.2838045111168399</v>
+        <v>2.56893579921018</v>
       </c>
       <c r="F67">
-        <v>17.4830022727268</v>
+        <v>16.8622334280298</v>
       </c>
       <c r="G67">
-        <v>13.062035606060199</v>
+        <v>13.844948200757599</v>
       </c>
       <c r="H67">
-        <v>22.8674977272726</v>
+        <v>21.294684943180702</v>
       </c>
       <c r="I67">
-        <v>3.3438378787877201</v>
+        <v>6.8179982007568398</v>
       </c>
       <c r="J67">
-        <v>23.4529439393934</v>
+        <v>23.642611837120999</v>
       </c>
       <c r="K67">
-        <v>1.40218989150409</v>
+        <v>0.35675424178745302</v>
       </c>
       <c r="L67">
-        <v>0.567292835754167</v>
+        <v>2.9326733782016001</v>
       </c>
       <c r="M67">
-        <v>5.8655096555426799E-2</v>
+        <v>0.25933369779212001</v>
       </c>
       <c r="N67">
-        <v>3.0063054311838</v>
+        <v>1.0717685413879401</v>
       </c>
       <c r="O67">
-        <v>0.210411889439334</v>
+        <v>0.28330952991673197</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68">
         <v>1989</v>
@@ -3903,45 +3902,45 @@
         <v>15</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>2.8354181018757298</v>
+        <v>3.3679803523908398</v>
       </c>
       <c r="F68">
-        <v>17.141705397727399</v>
+        <v>16.9008238636365</v>
       </c>
       <c r="G68">
-        <v>13.091755965909799</v>
+        <v>14.201524621213199</v>
       </c>
       <c r="H68">
-        <v>22.279723674242</v>
+        <v>22.618420454545099</v>
       </c>
       <c r="I68">
-        <v>5.9216718749993502</v>
+        <v>2.50047916666579</v>
       </c>
       <c r="J68">
-        <v>24.1133613636365</v>
+        <v>22.939681818181999</v>
       </c>
       <c r="K68">
-        <v>0.38952321397649298</v>
+        <v>0.22893966024565801</v>
       </c>
       <c r="L68">
-        <v>2.13134671330819</v>
+        <v>1.8985913538466901</v>
       </c>
       <c r="M68">
-        <v>0.18513874370574401</v>
+        <v>0.59160091408167903</v>
       </c>
       <c r="N68">
-        <v>0.411605877851208</v>
+        <v>1.86759810171115</v>
       </c>
       <c r="O68">
-        <v>0.231887941475725</v>
+        <v>0.57767584819142304</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69">
         <v>1989</v>
@@ -3950,40 +3949,40 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>3.3679803523908398</v>
+        <v>2.8354181018757298</v>
       </c>
       <c r="F69">
-        <v>16.9008238636365</v>
+        <v>17.141705397727399</v>
       </c>
       <c r="G69">
-        <v>14.201524621213199</v>
+        <v>13.091755965909799</v>
       </c>
       <c r="H69">
-        <v>22.618420454545099</v>
+        <v>22.279723674242</v>
       </c>
       <c r="I69">
-        <v>2.50047916666579</v>
+        <v>5.9216718749993502</v>
       </c>
       <c r="J69">
-        <v>22.939681818181999</v>
+        <v>24.1133613636365</v>
       </c>
       <c r="K69">
-        <v>0.22893966024565801</v>
+        <v>0.38952321397649298</v>
       </c>
       <c r="L69">
-        <v>1.8985913538466901</v>
+        <v>2.13134671330819</v>
       </c>
       <c r="M69">
-        <v>0.59160091408167903</v>
+        <v>0.18513874370574401</v>
       </c>
       <c r="N69">
-        <v>1.86759810171115</v>
+        <v>0.411605877851208</v>
       </c>
       <c r="O69">
-        <v>0.57767584819142304</v>
+        <v>0.231887941475725</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -4264,184 +4263,184 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B76">
         <v>1986</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76">
-        <v>2.6204776831702898</v>
-      </c>
-      <c r="F76">
-        <v>16.3557412878788</v>
-      </c>
-      <c r="G76">
-        <v>17.258291193181599</v>
-      </c>
-      <c r="H76">
-        <v>21.271601893940002</v>
-      </c>
-      <c r="I76">
-        <v>6.4310294507577703</v>
-      </c>
-      <c r="J76">
-        <v>21.922499999999999</v>
-      </c>
-      <c r="K76">
-        <v>1.39381775956101</v>
-      </c>
-      <c r="L76">
-        <v>1.10041580242572</v>
-      </c>
-      <c r="M76">
-        <v>0.37100579569880299</v>
-      </c>
-      <c r="N76">
-        <v>4.7283585590517201E-2</v>
-      </c>
-      <c r="O76">
-        <v>0.189503957742306</v>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76" t="s">
+        <v>105</v>
+      </c>
+      <c r="L76" t="s">
+        <v>105</v>
+      </c>
+      <c r="N76" t="s">
+        <v>105</v>
+      </c>
+      <c r="O76" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B77">
         <v>1986</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77">
-        <v>3.2509341175505102</v>
-      </c>
-      <c r="F77">
-        <v>22.912578055964602</v>
-      </c>
-      <c r="G77">
-        <v>11.5150522827703</v>
-      </c>
-      <c r="H77">
-        <v>22.765211585664701</v>
-      </c>
-      <c r="I77">
-        <v>3.4736167157580899</v>
-      </c>
-      <c r="J77">
-        <v>22.701163475699602</v>
-      </c>
-      <c r="K77">
-        <v>0.47293214358953101</v>
-      </c>
-      <c r="L77">
-        <v>0.60937771816450603</v>
-      </c>
-      <c r="M77">
-        <v>0.38446982159461401</v>
-      </c>
-      <c r="N77">
-        <v>0.19778519946470599</v>
-      </c>
-      <c r="O77">
-        <v>0.20138033262342001</v>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" t="s">
+        <v>105</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77" t="s">
+        <v>105</v>
+      </c>
+      <c r="L77" t="s">
+        <v>105</v>
+      </c>
+      <c r="N77" t="s">
+        <v>105</v>
+      </c>
+      <c r="O77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B78">
         <v>1986</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" t="s">
-        <v>105</v>
-      </c>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-      <c r="J78" t="s">
-        <v>105</v>
-      </c>
-      <c r="K78" t="s">
-        <v>105</v>
-      </c>
-      <c r="L78" t="s">
-        <v>105</v>
-      </c>
-      <c r="N78" t="s">
-        <v>105</v>
-      </c>
-      <c r="O78" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2.6204776831702898</v>
+      </c>
+      <c r="F78">
+        <v>16.3557412878788</v>
+      </c>
+      <c r="G78">
+        <v>17.258291193181599</v>
+      </c>
+      <c r="H78">
+        <v>21.271601893940002</v>
+      </c>
+      <c r="I78">
+        <v>6.4310294507577703</v>
+      </c>
+      <c r="J78">
+        <v>21.922499999999999</v>
+      </c>
+      <c r="K78">
+        <v>1.39381775956101</v>
+      </c>
+      <c r="L78">
+        <v>1.10041580242572</v>
+      </c>
+      <c r="M78">
+        <v>0.37100579569880299</v>
+      </c>
+      <c r="N78">
+        <v>4.7283585590517201E-2</v>
+      </c>
+      <c r="O78">
+        <v>0.189503957742306</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B79">
         <v>1986</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-      <c r="J79" t="s">
-        <v>105</v>
-      </c>
-      <c r="K79" t="s">
-        <v>105</v>
-      </c>
-      <c r="L79" t="s">
-        <v>105</v>
-      </c>
-      <c r="N79" t="s">
-        <v>105</v>
-      </c>
-      <c r="O79" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>3.2509341175505102</v>
+      </c>
+      <c r="F79">
+        <v>22.912578055964602</v>
+      </c>
+      <c r="G79">
+        <v>11.5150522827703</v>
+      </c>
+      <c r="H79">
+        <v>22.765211585664701</v>
+      </c>
+      <c r="I79">
+        <v>3.4736167157580899</v>
+      </c>
+      <c r="J79">
+        <v>22.701163475699602</v>
+      </c>
+      <c r="K79">
+        <v>0.47293214358953101</v>
+      </c>
+      <c r="L79">
+        <v>0.60937771816450603</v>
+      </c>
+      <c r="M79">
+        <v>0.38446982159461401</v>
+      </c>
+      <c r="N79">
+        <v>0.19778519946470599</v>
+      </c>
+      <c r="O79">
+        <v>0.20138033262342001</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4537,13 +4536,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82">
         <v>1983</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -4581,63 +4580,60 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>1983</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83">
-        <v>2.8043493808481301</v>
-      </c>
-      <c r="F83">
-        <v>16.350245454545401</v>
-      </c>
-      <c r="G83">
-        <v>18.216407291667</v>
-      </c>
-      <c r="H83">
-        <v>20.094939583333201</v>
-      </c>
-      <c r="I83">
-        <v>3.9562329545453898</v>
-      </c>
-      <c r="J83">
-        <v>20.971898200757401</v>
-      </c>
-      <c r="K83">
-        <v>1.56279730497795</v>
-      </c>
-      <c r="L83">
-        <v>1.64121831004688</v>
-      </c>
-      <c r="M83">
-        <v>1.0364123851645399</v>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+      <c r="J83" t="s">
+        <v>105</v>
+      </c>
+      <c r="K83" t="s">
+        <v>105</v>
+      </c>
+      <c r="L83" t="s">
+        <v>105</v>
       </c>
       <c r="N83" t="s">
         <v>105</v>
       </c>
-      <c r="O83">
-        <v>0.52146386072435602</v>
+      <c r="O83" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>1983</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
         <v>105</v>
@@ -4672,107 +4668,107 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B85">
         <v>1983</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>105</v>
-      </c>
-      <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
-      <c r="H85" t="s">
-        <v>105</v>
-      </c>
-      <c r="I85" t="s">
-        <v>105</v>
-      </c>
-      <c r="J85" t="s">
-        <v>105</v>
-      </c>
-      <c r="K85" t="s">
-        <v>105</v>
-      </c>
-      <c r="L85" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2.8043493808481301</v>
+      </c>
+      <c r="F85">
+        <v>16.350245454545401</v>
+      </c>
+      <c r="G85">
+        <v>18.216407291667</v>
+      </c>
+      <c r="H85">
+        <v>20.094939583333201</v>
+      </c>
+      <c r="I85">
+        <v>3.9562329545453898</v>
+      </c>
+      <c r="J85">
+        <v>20.971898200757401</v>
+      </c>
+      <c r="K85">
+        <v>1.56279730497795</v>
+      </c>
+      <c r="L85">
+        <v>1.64121831004688</v>
+      </c>
+      <c r="M85">
+        <v>1.0364123851645399</v>
       </c>
       <c r="N85" t="s">
         <v>105</v>
       </c>
-      <c r="O85" t="s">
-        <v>105</v>
+      <c r="O85">
+        <v>0.52146386072435602</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B86">
         <v>1980</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>3.3145752854322601</v>
-      </c>
-      <c r="F86">
-        <v>14.434212121212401</v>
-      </c>
-      <c r="G86">
-        <v>16.425354166667699</v>
-      </c>
-      <c r="H86">
-        <v>23.144208333333498</v>
-      </c>
-      <c r="I86">
-        <v>3.4033068181817701</v>
-      </c>
-      <c r="J86">
-        <v>22.953111742424301</v>
-      </c>
-      <c r="K86">
-        <v>2.2163646329392201</v>
-      </c>
-      <c r="L86">
-        <v>6.0776554430949004</v>
-      </c>
-      <c r="M86">
-        <v>0.39317478730504501</v>
-      </c>
-      <c r="N86">
-        <v>1.0200883305381001</v>
-      </c>
-      <c r="O86">
-        <v>0.17534264289265</v>
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" t="s">
+        <v>105</v>
+      </c>
+      <c r="K86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" t="s">
+        <v>105</v>
+      </c>
+      <c r="N86" t="s">
+        <v>105</v>
+      </c>
+      <c r="O86" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87">
         <v>1980</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>105</v>
@@ -4807,16 +4803,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1980</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
         <v>105</v>
@@ -4851,46 +4847,49 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B89">
         <v>1980</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" t="s">
-        <v>105</v>
-      </c>
-      <c r="J89" t="s">
-        <v>105</v>
-      </c>
-      <c r="K89" t="s">
-        <v>105</v>
-      </c>
-      <c r="L89" t="s">
-        <v>105</v>
-      </c>
-      <c r="N89" t="s">
-        <v>105</v>
-      </c>
-      <c r="O89" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>3.3145752854322601</v>
+      </c>
+      <c r="F89">
+        <v>14.434212121212401</v>
+      </c>
+      <c r="G89">
+        <v>16.425354166667699</v>
+      </c>
+      <c r="H89">
+        <v>23.144208333333498</v>
+      </c>
+      <c r="I89">
+        <v>3.4033068181817701</v>
+      </c>
+      <c r="J89">
+        <v>22.953111742424301</v>
+      </c>
+      <c r="K89">
+        <v>2.2163646329392201</v>
+      </c>
+      <c r="L89">
+        <v>6.0776554430949004</v>
+      </c>
+      <c r="M89">
+        <v>0.39317478730504501</v>
+      </c>
+      <c r="N89">
+        <v>1.0200883305381001</v>
+      </c>
+      <c r="O89">
+        <v>0.17534264289265</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -5171,7 +5170,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96">
         <v>1977</v>
@@ -5180,45 +5179,45 @@
         <v>20</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>3.1116486393681999</v>
+        <v>3.3646456240879301</v>
       </c>
       <c r="F96">
-        <v>10.602315151515301</v>
+        <v>20.866051515151899</v>
       </c>
       <c r="G96">
-        <v>15.309191666667701</v>
+        <v>12.163309375001701</v>
       </c>
       <c r="H96">
-        <v>23.102716666666701</v>
+        <v>21.491493750000199</v>
       </c>
       <c r="I96">
-        <v>4.7944772727272102</v>
+        <v>1.39709564393938</v>
       </c>
       <c r="J96">
-        <v>23.543155303030399</v>
+        <v>21.211079071970101</v>
       </c>
       <c r="K96">
-        <v>5.4799588464576301</v>
+        <v>0.62296134037165696</v>
       </c>
       <c r="L96">
-        <v>1.46066912983681</v>
+        <v>0.202853753725</v>
       </c>
       <c r="M96">
-        <v>0.169281277382928</v>
+        <v>0.210545330722545</v>
       </c>
       <c r="N96">
-        <v>0.59609864940909796</v>
+        <v>0.34310232568125199</v>
       </c>
       <c r="O96">
-        <v>0.39993809865716001</v>
+        <v>0.180046974857133</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97">
         <v>1977</v>
@@ -5227,40 +5226,40 @@
         <v>20</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>3.3646456240879301</v>
+        <v>3.1116486393681999</v>
       </c>
       <c r="F97">
-        <v>20.866051515151899</v>
+        <v>10.602315151515301</v>
       </c>
       <c r="G97">
-        <v>12.163309375001701</v>
+        <v>15.309191666667701</v>
       </c>
       <c r="H97">
-        <v>21.491493750000199</v>
+        <v>23.102716666666701</v>
       </c>
       <c r="I97">
-        <v>1.39709564393938</v>
+        <v>4.7944772727272102</v>
       </c>
       <c r="J97">
-        <v>21.211079071970101</v>
+        <v>23.543155303030399</v>
       </c>
       <c r="K97">
-        <v>0.62296134037165696</v>
+        <v>5.4799588464576301</v>
       </c>
       <c r="L97">
-        <v>0.202853753725</v>
+        <v>1.46066912983681</v>
       </c>
       <c r="M97">
-        <v>0.210545330722545</v>
+        <v>0.169281277382928</v>
       </c>
       <c r="N97">
-        <v>0.34310232568125199</v>
+        <v>0.59609864940909796</v>
       </c>
       <c r="O97">
-        <v>0.180046974857133</v>
+        <v>0.39993809865716001</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -5538,7 +5537,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B104">
         <v>1971</v>
@@ -5547,45 +5546,45 @@
         <v>15</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>3.1222973001973999</v>
+        <v>3.2549188369173101</v>
       </c>
       <c r="F104">
-        <v>19.168253787878701</v>
+        <v>19.251461647727002</v>
       </c>
       <c r="G104">
-        <v>13.015369696968101</v>
+        <v>16.663256818180301</v>
       </c>
       <c r="H104">
-        <v>22.5764886363621</v>
+        <v>23.185312973483299</v>
       </c>
       <c r="I104">
-        <v>4.19306969696843</v>
+        <v>3.8655859848471001</v>
       </c>
       <c r="J104">
-        <v>22.7242575757565</v>
+        <v>22.734808712119701</v>
       </c>
       <c r="K104">
-        <v>0.61919574919366505</v>
+        <v>0.165242817675713</v>
       </c>
       <c r="L104">
-        <v>0.18319833692621801</v>
+        <v>0.46501670991614402</v>
       </c>
       <c r="M104">
-        <v>0.30152919904383702</v>
+        <v>0.13530537647254801</v>
       </c>
       <c r="N104">
-        <v>0.88090461456198099</v>
+        <v>0.33607319644046502</v>
       </c>
       <c r="O104">
-        <v>0.443009630242446</v>
+        <v>0.384693182923602</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105">
         <v>1971</v>
@@ -5594,45 +5593,45 @@
         <v>15</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>3.2549188369173101</v>
+        <v>3.1222973001973999</v>
       </c>
       <c r="F105">
-        <v>19.251461647727002</v>
+        <v>19.168253787878701</v>
       </c>
       <c r="G105">
-        <v>16.663256818180301</v>
+        <v>13.015369696968101</v>
       </c>
       <c r="H105">
-        <v>23.185312973483299</v>
+        <v>22.5764886363621</v>
       </c>
       <c r="I105">
-        <v>3.8655859848471001</v>
+        <v>4.19306969696843</v>
       </c>
       <c r="J105">
-        <v>22.734808712119701</v>
+        <v>22.7242575757565</v>
       </c>
       <c r="K105">
-        <v>0.165242817675713</v>
+        <v>0.61919574919366505</v>
       </c>
       <c r="L105">
-        <v>0.46501670991614402</v>
+        <v>0.18319833692621801</v>
       </c>
       <c r="M105">
-        <v>0.13530537647254801</v>
+        <v>0.30152919904383702</v>
       </c>
       <c r="N105">
-        <v>0.33607319644046502</v>
+        <v>0.88090461456198099</v>
       </c>
       <c r="O105">
-        <v>0.384693182923602</v>
+        <v>0.443009630242446</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B106">
         <v>1971</v>
@@ -5641,45 +5640,45 @@
         <v>17</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>3.1026172713322002</v>
+        <v>3.2288648703750602</v>
       </c>
       <c r="F106">
-        <v>23.311657670454601</v>
+        <v>22.289532196969699</v>
       </c>
       <c r="G106">
-        <v>14.2255219696955</v>
+        <v>13.740742424241001</v>
       </c>
       <c r="H106">
-        <v>21.499787405301401</v>
+        <v>21.991611742422698</v>
       </c>
       <c r="I106">
-        <v>3.25530946969609</v>
+        <v>2.8558257575747601</v>
       </c>
       <c r="J106">
-        <v>22.4476382575745</v>
+        <v>23.1675227272715</v>
       </c>
       <c r="K106">
-        <v>0.17711351133014699</v>
+        <v>0.89714611089072704</v>
       </c>
       <c r="L106">
-        <v>0.157922913351915</v>
+        <v>0.33071583685017802</v>
       </c>
       <c r="M106">
-        <v>5.5154439820433998E-2</v>
+        <v>9.9151045610143901E-2</v>
       </c>
       <c r="N106">
-        <v>5.6864663513921103E-2</v>
+        <v>0.43413150783221799</v>
       </c>
       <c r="O106">
-        <v>0.123371545217446</v>
+        <v>9.5545356052903402E-2</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B107">
         <v>1971</v>
@@ -5688,45 +5687,45 @@
         <v>17</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>3.2288648703750602</v>
+        <v>3.1026172713322002</v>
       </c>
       <c r="F107">
-        <v>22.289532196969699</v>
+        <v>23.311657670454601</v>
       </c>
       <c r="G107">
-        <v>13.740742424241001</v>
+        <v>14.2255219696955</v>
       </c>
       <c r="H107">
-        <v>21.991611742422698</v>
+        <v>21.499787405301401</v>
       </c>
       <c r="I107">
-        <v>2.8558257575747601</v>
+        <v>3.25530946969609</v>
       </c>
       <c r="J107">
-        <v>23.1675227272715</v>
+        <v>22.4476382575745</v>
       </c>
       <c r="K107">
-        <v>0.89714611089072704</v>
+        <v>0.17711351133014699</v>
       </c>
       <c r="L107">
-        <v>0.33071583685017802</v>
+        <v>0.157922913351915</v>
       </c>
       <c r="M107">
-        <v>9.9151045610143901E-2</v>
+        <v>5.5154439820433998E-2</v>
       </c>
       <c r="N107">
-        <v>0.43413150783221799</v>
+        <v>5.6864663513921103E-2</v>
       </c>
       <c r="O107">
-        <v>9.5545356052903402E-2</v>
+        <v>0.123371545217446</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108">
         <v>1971</v>
@@ -5735,45 +5734,45 @@
         <v>20</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>2.6386747252983298</v>
+        <v>3.4028020645549399</v>
       </c>
       <c r="F108">
-        <v>24.341136363637201</v>
+        <v>20.361012121212902</v>
       </c>
       <c r="G108">
-        <v>13.2007897727269</v>
+        <v>12.499350757575399</v>
       </c>
       <c r="H108">
-        <v>21.649242424243599</v>
+        <v>22.8166363636374</v>
       </c>
       <c r="I108">
-        <v>6.6801988636374201</v>
+        <v>2.45285378787952</v>
       </c>
       <c r="J108">
-        <v>20.493107954545899</v>
+        <v>21.685690151515601</v>
       </c>
       <c r="K108">
-        <v>0.36352663151875803</v>
+        <v>0.42262637934742497</v>
       </c>
       <c r="L108">
-        <v>8.9132593959779294E-2</v>
+        <v>1.4435868166624399</v>
       </c>
       <c r="M108">
-        <v>0.38157454505872002</v>
+        <v>0.44078223866384197</v>
       </c>
       <c r="N108">
-        <v>0.30075698045646199</v>
+        <v>0.83347852522584498</v>
       </c>
       <c r="O108">
-        <v>0.278836851851334</v>
+        <v>0.60727742788618</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B109">
         <v>1971</v>
@@ -5782,40 +5781,40 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>3.4028020645549399</v>
+        <v>2.6386747252983298</v>
       </c>
       <c r="F109">
-        <v>20.361012121212902</v>
+        <v>24.341136363637201</v>
       </c>
       <c r="G109">
-        <v>12.499350757575399</v>
+        <v>13.2007897727269</v>
       </c>
       <c r="H109">
-        <v>22.8166363636374</v>
+        <v>21.649242424243599</v>
       </c>
       <c r="I109">
-        <v>2.45285378787952</v>
+        <v>6.6801988636374201</v>
       </c>
       <c r="J109">
-        <v>21.685690151515601</v>
+        <v>20.493107954545899</v>
       </c>
       <c r="K109">
-        <v>0.42262637934742497</v>
+        <v>0.36352663151875803</v>
       </c>
       <c r="L109">
-        <v>1.4435868166624399</v>
+        <v>8.9132593959779294E-2</v>
       </c>
       <c r="M109">
-        <v>0.44078223866384197</v>
+        <v>0.38157454505872002</v>
       </c>
       <c r="N109">
-        <v>0.83347852522584498</v>
+        <v>0.30075698045646199</v>
       </c>
       <c r="O109">
-        <v>0.60727742788618</v>
+        <v>0.278836851851334</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -6005,7 +6004,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B114">
         <v>1967</v>
@@ -6014,45 +6013,45 @@
         <v>15</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>3.50903317881364</v>
+        <v>3.30290580200018</v>
       </c>
       <c r="F114">
-        <v>15.983870454544</v>
+        <v>13.7562387310597</v>
       </c>
       <c r="G114">
-        <v>16.847796212119601</v>
+        <v>18.0066779356046</v>
       </c>
       <c r="H114">
-        <v>23.049396212120499</v>
+        <v>23.5592279356053</v>
       </c>
       <c r="I114">
-        <v>1.93562196969619</v>
+        <v>3.9007129734840098</v>
       </c>
       <c r="J114">
-        <v>22.047406060605301</v>
+        <v>22.3892219696965</v>
       </c>
       <c r="K114">
-        <v>1.3124922367171701</v>
+        <v>0.62569701402161004</v>
       </c>
       <c r="L114">
-        <v>0.34186327564694602</v>
+        <v>0.22308331499543799</v>
       </c>
       <c r="M114">
-        <v>0.14826694408292301</v>
+        <v>0.63944506996527195</v>
       </c>
       <c r="N114">
-        <v>0.88777095317435595</v>
+        <v>0.52284169445357098</v>
       </c>
       <c r="O114">
-        <v>0.21999389104879799</v>
+        <v>0.39366773115569498</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B115">
         <v>1967</v>
@@ -6061,45 +6060,45 @@
         <v>15</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>3.30290580200018</v>
+        <v>3.50903317881364</v>
       </c>
       <c r="F115">
-        <v>13.7562387310597</v>
+        <v>15.983870454544</v>
       </c>
       <c r="G115">
-        <v>18.0066779356046</v>
+        <v>16.847796212119601</v>
       </c>
       <c r="H115">
-        <v>23.5592279356053</v>
+        <v>23.049396212120499</v>
       </c>
       <c r="I115">
-        <v>3.9007129734840098</v>
+        <v>1.93562196969619</v>
       </c>
       <c r="J115">
-        <v>22.3892219696965</v>
+        <v>22.047406060605301</v>
       </c>
       <c r="K115">
-        <v>0.62569701402161004</v>
+        <v>1.3124922367171701</v>
       </c>
       <c r="L115">
-        <v>0.22308331499543799</v>
+        <v>0.34186327564694602</v>
       </c>
       <c r="M115">
-        <v>0.63944506996527195</v>
+        <v>0.14826694408292301</v>
       </c>
       <c r="N115">
-        <v>0.52284169445357098</v>
+        <v>0.88777095317435595</v>
       </c>
       <c r="O115">
-        <v>0.39366773115569498</v>
+        <v>0.21999389104879799</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B116">
         <v>1965</v>
@@ -6108,45 +6107,42 @@
         <v>15</v>
       </c>
       <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>3.2593741952098898</v>
-      </c>
-      <c r="F116">
-        <v>14.541231060606099</v>
-      </c>
-      <c r="G116">
-        <v>14.5498401515153</v>
-      </c>
-      <c r="H116">
-        <v>21.867643181818199</v>
-      </c>
-      <c r="I116">
-        <v>2.51646136363635</v>
-      </c>
-      <c r="J116">
-        <v>20.964827272727501</v>
-      </c>
-      <c r="K116">
-        <v>1.2639020681731801</v>
-      </c>
-      <c r="L116">
-        <v>1.94763657978048</v>
-      </c>
-      <c r="M116">
-        <v>0.554059014211292</v>
-      </c>
-      <c r="N116">
-        <v>0.32972569194901602</v>
-      </c>
-      <c r="O116">
-        <v>0.12829946149333399</v>
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>105</v>
+      </c>
+      <c r="G116" t="s">
+        <v>105</v>
+      </c>
+      <c r="H116" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" t="s">
+        <v>105</v>
+      </c>
+      <c r="J116" t="s">
+        <v>105</v>
+      </c>
+      <c r="K116" t="s">
+        <v>105</v>
+      </c>
+      <c r="L116" t="s">
+        <v>105</v>
+      </c>
+      <c r="N116" t="s">
+        <v>105</v>
+      </c>
+      <c r="O116" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B117">
         <v>1965</v>
@@ -6155,37 +6151,40 @@
         <v>15</v>
       </c>
       <c r="D117">
-        <v>3</v>
-      </c>
-      <c r="E117" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" t="s">
-        <v>105</v>
-      </c>
-      <c r="H117" t="s">
-        <v>105</v>
-      </c>
-      <c r="I117" t="s">
-        <v>105</v>
-      </c>
-      <c r="J117" t="s">
-        <v>105</v>
-      </c>
-      <c r="K117" t="s">
-        <v>105</v>
-      </c>
-      <c r="L117" t="s">
-        <v>105</v>
-      </c>
-      <c r="N117" t="s">
-        <v>105</v>
-      </c>
-      <c r="O117" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>3.2593741952098898</v>
+      </c>
+      <c r="F117">
+        <v>14.541231060606099</v>
+      </c>
+      <c r="G117">
+        <v>14.5498401515153</v>
+      </c>
+      <c r="H117">
+        <v>21.867643181818199</v>
+      </c>
+      <c r="I117">
+        <v>2.51646136363635</v>
+      </c>
+      <c r="J117">
+        <v>20.964827272727501</v>
+      </c>
+      <c r="K117">
+        <v>1.2639020681731801</v>
+      </c>
+      <c r="L117">
+        <v>1.94763657978048</v>
+      </c>
+      <c r="M117">
+        <v>0.554059014211292</v>
+      </c>
+      <c r="N117">
+        <v>0.32972569194901602</v>
+      </c>
+      <c r="O117">
+        <v>0.12829946149333399</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
@@ -6371,9 +6370,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O121">
-    <sortCondition descending="1" ref="B1:B121"/>
-    <sortCondition ref="C1:C121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O121">
+    <sortCondition descending="1" ref="B2:B121"/>
+    <sortCondition ref="C2:C121"/>
+    <sortCondition descending="1" ref="D2:D121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
